--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78760C25-E4EA-4D1C-9D4E-99B0CF5FE091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B3B8D4-8F5B-4886-863C-FBA65F3844EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2820" windowWidth="24000" windowHeight="10710" tabRatio="894" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" tabRatio="894" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" state="hidden" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. Login (A101)'!$A$1:$AI$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Project management (A102)'!$A$1:$AI$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Project management (A102)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3. Project list output (A106)'!$A$3:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
@@ -28,14 +28,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -753,6 +751,87 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -870,103 +949,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,21 +965,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,8 +1021,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1103,6 +1099,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6714,161 +6712,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247714</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>110609</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>62984</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1076389" y="2187059"/>
-          <a:ext cx="828612" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 25000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Project</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>table</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86796</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86797</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="3" idx="4"/>
-          <a:endCxn id="67" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="1905001" y="2829996"/>
-          <a:ext cx="1962149" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>48816</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243052</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>51143</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>48816</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6886,9 +6739,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4468416" y="1924050"/>
-          <a:ext cx="2327" cy="228601"/>
+        <a:xfrm flipH="1">
+          <a:off x="2452852" y="1514475"/>
+          <a:ext cx="2015564" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6910,13 +6763,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6977,13 +6830,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>2165</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>64510</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7068,13 +6921,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7147,13 +7000,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7232,7 +7085,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>19975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="332592" cy="169598"/>
@@ -7308,13 +7161,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7571,7 +7424,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>19975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="332463" cy="169598"/>
@@ -7647,13 +7500,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7744,7 +7597,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1123949" cy="283796"/>
@@ -7864,7 +7717,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>77125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1130374" cy="169598"/>
@@ -7940,13 +7793,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8007,7 +7860,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>134275</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="906338" cy="169598"/>
@@ -8083,13 +7936,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8142,7 +7995,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1108124" cy="151132"/>
@@ -8218,7 +8071,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="447751" cy="151132"/>
@@ -8294,13 +8147,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8383,13 +8236,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8477,7 +8330,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>105700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="294119" cy="169598"/>
@@ -8553,13 +8406,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8610,7 +8463,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="903132" cy="169598"/>
@@ -8686,13 +8539,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8744,7 +8597,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>124750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409536" cy="169598"/>
@@ -8820,13 +8673,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8844,7 +8697,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="4581525"/>
+          <a:off x="7848600" y="6257925"/>
           <a:ext cx="685800" cy="361950"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
@@ -8985,7 +8838,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>10450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="713785" cy="169598"/>
@@ -9061,13 +8914,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9085,7 +8938,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="5057775"/>
+          <a:off x="7848600" y="6734175"/>
           <a:ext cx="685800" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
@@ -9226,7 +9079,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>73169</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="752475" cy="302262"/>
@@ -9302,13 +9155,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9361,7 +9214,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>124750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="758797" cy="169598"/>
@@ -9437,7 +9290,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>77125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="726802" cy="169598"/>
@@ -9513,13 +9366,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9537,7 +9390,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2695575" y="4905375"/>
+          <a:off x="2695575" y="6581775"/>
           <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
@@ -9618,13 +9471,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9719,13 +9572,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9778,13 +9631,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9857,13 +9710,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9917,13 +9770,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9996,7 +9849,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>167720</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="918265" cy="266548"/>
@@ -10090,13 +9943,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10153,13 +10006,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10232,13 +10085,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10290,7 +10143,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>67600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="733214" cy="169598"/>
@@ -10364,16 +10217,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191909</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>54294</xdr:rowOff>
+      <xdr:rowOff>82868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29984</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>119298</xdr:rowOff>
+      <xdr:rowOff>147872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10390,7 +10243,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3867150" y="2283144"/>
+          <a:off x="1849259" y="2311718"/>
           <a:ext cx="1219200" cy="369804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10457,16 +10310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>84316</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>17969</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209878</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10506,8 +10359,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4227691" y="2152651"/>
-          <a:ext cx="486103" cy="419100"/>
+          <a:off x="2209800" y="1771650"/>
+          <a:ext cx="486103" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10689,16 +10542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>110609</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>190437</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>62984</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228537</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10715,7 +10568,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7648575" y="2187059"/>
+          <a:off x="4095750" y="1771650"/>
           <a:ext cx="828612" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -10784,16 +10637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86796</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86797</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10806,14 +10659,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="67" idx="3"/>
           <a:endCxn id="103" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5086350" y="2829996"/>
-          <a:ext cx="2562225" cy="1"/>
+          <a:off x="2762250" y="2052638"/>
+          <a:ext cx="1333500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10834,14 +10686,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -10856,13 +10708,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:endCxn id="146" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4467225" y="3038475"/>
-          <a:ext cx="4763" cy="314325"/>
+          <a:off x="2438400" y="2695575"/>
+          <a:ext cx="4763" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10882,16 +10733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10908,7 +10759,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4400550" y="3009900"/>
+          <a:off x="2381250" y="3028950"/>
           <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
@@ -10954,6 +10805,670 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000092000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="673" y="633"/>
+            <a:ext cx="11" cy="12"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Text Box 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53D9E7C-14A9-442C-9011-79B72A5FCCB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6115050" y="2321243"/>
+          <a:ext cx="1219200" cy="369804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>WA10202</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>inquiry</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>122416</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>56069</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C759AC8A-D329-45C3-A687-4501F666C1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6475591" y="1781175"/>
+          <a:ext cx="486103" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228537</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="AutoShape 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDFCD8E-2962-4585-BDA0-5B34ED5CF3C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="103" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4924362" y="2052638"/>
+          <a:ext cx="1428813" cy="23812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>48816</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>89243</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="AutoShape 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCA6D5F-8BFC-485D-AC64-12C1AD6D10EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="75" idx="2"/>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4468416" y="1514475"/>
+          <a:ext cx="2250227" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Text Box 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFB8363-F8F7-484B-AF83-1F771EBF187C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="3683318"/>
+          <a:ext cx="1219200" cy="369804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>WA10203</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>update</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>103366</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>37019</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A45FDF7-FD8F-4FBA-A37C-926A66A694AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6456541" y="3143250"/>
+          <a:ext cx="486103" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="AutoShape 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC3B506-2FB3-40E6-B17E-B84B4931CCDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6724650" y="2691047"/>
+          <a:ext cx="0" cy="299803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147403</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="AutoShape 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F113F7-98DA-437C-8460-FE7F24DA0E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6724650" y="4057650"/>
+          <a:ext cx="0" cy="299803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="96" name="Group 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62219AE8-1682-4E20-B201-B5D214DA84ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6657975" y="4362450"/>
+          <a:ext cx="142875" cy="161925"/>
+          <a:chOff x="671" y="631"/>
+          <a:chExt cx="15" cy="16"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="Oval 360">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC489DD-366B-41B8-9B18-2EB9D3CB4D68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="671" y="631"/>
+            <a:ext cx="15" cy="16"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C0C0C0"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="Oval 361">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EDBAB7-FA53-4ACE-BE90-13C17EBCE7FE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16149,57 +16664,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="96" t="s">
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="105" t="s">
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="86" t="s">
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="114" t="str">
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="141" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="79">
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="106">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="108"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -16207,53 +16722,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="86" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="92" t="str">
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="79" t="str">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="106" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="108"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -16261,45 +16776,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="117" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="81"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="108"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -16336,1190 +16851,1034 @@
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="85" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="82" t="s">
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="82" t="s">
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="83"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="110"/>
     </row>
     <row r="8" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="93"/>
+      <c r="D8" s="94">
         <v>43578</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="102"/>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="124"/>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
     </row>
     <row r="12" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="87"/>
     </row>
     <row r="13" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="87"/>
     </row>
     <row r="14" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="126"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="87"/>
     </row>
     <row r="15" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="87"/>
     </row>
     <row r="16" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="87"/>
     </row>
     <row r="17" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
     </row>
     <row r="18" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="126"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
     </row>
     <row r="19" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="87"/>
     </row>
     <row r="20" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="126"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="87"/>
     </row>
     <row r="21" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="87"/>
     </row>
     <row r="22" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
     </row>
     <row r="23" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="126"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="87"/>
     </row>
     <row r="24" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="87"/>
     </row>
     <row r="25" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="87"/>
     </row>
     <row r="26" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="126"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="87"/>
     </row>
     <row r="27" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="126"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="87"/>
     </row>
     <row r="28" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="126"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="87"/>
     </row>
     <row r="29" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="126"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="124"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="126"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
     </row>
     <row r="31" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="124"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="126"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="87"/>
     </row>
     <row r="32" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="124"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="87"/>
     </row>
     <row r="33" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="126"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="87"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -17543,6 +17902,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17559,7 +18074,7 @@
   <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17698,163 +18213,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="159" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="168" t="str">
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="154" t="s">
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="154" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -18840,6 +19355,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18849,14 +19372,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18873,7 +19388,7 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -18882,163 +19397,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="179" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="154" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="154" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -22710,6 +23225,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -22719,14 +23242,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -22747,10 +23262,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL87"/>
+  <dimension ref="A1:AL91"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -22759,163 +23274,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="179" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="154" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="154" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -23746,8 +24261,6 @@
       <c r="AA26" s="39"/>
       <c r="AB26" s="39"/>
       <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
       <c r="AF26" s="39"/>
       <c r="AG26" s="39"/>
       <c r="AH26" s="39"/>
@@ -23783,8 +24296,6 @@
       <c r="AA27" s="39"/>
       <c r="AB27" s="39"/>
       <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
       <c r="AF27" s="39"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="39"/>
@@ -23820,8 +24331,6 @@
       <c r="AA28" s="39"/>
       <c r="AB28" s="39"/>
       <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
       <c r="AF28" s="39"/>
       <c r="AG28" s="39"/>
       <c r="AH28" s="39"/>
@@ -23857,8 +24366,6 @@
       <c r="AA29" s="39"/>
       <c r="AB29" s="39"/>
       <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
       <c r="AF29" s="39"/>
       <c r="AG29" s="39"/>
       <c r="AH29" s="39"/>
@@ -23894,8 +24401,6 @@
       <c r="AA30" s="39"/>
       <c r="AB30" s="39"/>
       <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
       <c r="AF30" s="39"/>
       <c r="AG30" s="39"/>
       <c r="AH30" s="39"/>
@@ -23931,8 +24436,6 @@
       <c r="AA31" s="39"/>
       <c r="AB31" s="39"/>
       <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
       <c r="AF31" s="39"/>
       <c r="AG31" s="39"/>
       <c r="AH31" s="39"/>
@@ -23968,8 +24471,6 @@
       <c r="AA32" s="39"/>
       <c r="AB32" s="39"/>
       <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
       <c r="AF32" s="39"/>
       <c r="AG32" s="39"/>
       <c r="AH32" s="39"/>
@@ -24005,8 +24506,6 @@
       <c r="AA33" s="39"/>
       <c r="AB33" s="39"/>
       <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
       <c r="AF33" s="39"/>
       <c r="AG33" s="39"/>
       <c r="AH33" s="39"/>
@@ -24042,8 +24541,6 @@
       <c r="AA34" s="39"/>
       <c r="AB34" s="39"/>
       <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
       <c r="AF34" s="39"/>
       <c r="AG34" s="39"/>
       <c r="AH34" s="39"/>
@@ -24079,8 +24576,6 @@
       <c r="AA35" s="39"/>
       <c r="AB35" s="39"/>
       <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
       <c r="AF35" s="39"/>
       <c r="AG35" s="39"/>
       <c r="AH35" s="39"/>
@@ -24116,8 +24611,6 @@
       <c r="AA36" s="39"/>
       <c r="AB36" s="39"/>
       <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
       <c r="AF36" s="39"/>
       <c r="AG36" s="39"/>
       <c r="AH36" s="39"/>
@@ -24271,7 +24764,7 @@
       <c r="AH40" s="39"/>
       <c r="AI40" s="39"/>
     </row>
-    <row r="41" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -24308,7 +24801,7 @@
       <c r="AH41" s="39"/>
       <c r="AI41" s="39"/>
     </row>
-    <row r="42" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -24345,7 +24838,7 @@
       <c r="AH42" s="39"/>
       <c r="AI42" s="39"/>
     </row>
-    <row r="43" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -24382,7 +24875,7 @@
       <c r="AH43" s="39"/>
       <c r="AI43" s="39"/>
     </row>
-    <row r="44" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -24678,7 +25171,7 @@
       <c r="AH51" s="39"/>
       <c r="AI51" s="39"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -26010,8 +26503,164 @@
       <c r="AH87" s="39"/>
       <c r="AI87" s="39"/>
     </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
+      <c r="Z88" s="39"/>
+      <c r="AA88" s="39"/>
+      <c r="AB88" s="39"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="39"/>
+      <c r="AE88" s="39"/>
+      <c r="AF88" s="39"/>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="39"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="39"/>
+      <c r="AB89" s="39"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="39"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="39"/>
+      <c r="AH89" s="39"/>
+      <c r="AI89" s="39"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39"/>
+      <c r="AA90" s="39"/>
+      <c r="AB90" s="39"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="39"/>
+      <c r="AE90" s="39"/>
+      <c r="AF90" s="39"/>
+      <c r="AG90" s="39"/>
+      <c r="AH90" s="39"/>
+      <c r="AI90" s="39"/>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="39"/>
+      <c r="AB91" s="39"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="39"/>
+      <c r="AE91" s="39"/>
+      <c r="AF91" s="39"/>
+      <c r="AG91" s="39"/>
+      <c r="AH91" s="39"/>
+      <c r="AI91" s="39"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -26021,14 +26670,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -26049,7 +26690,7 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -26058,163 +26699,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="179" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="154" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="154" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -29858,6 +30499,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -29867,14 +30516,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B3B8D4-8F5B-4886-863C-FBA65F3844EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A6705-BB8D-4622-A332-6B91520694A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" tabRatio="894" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="5415" windowWidth="26940" windowHeight="8535" tabRatio="894" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" state="hidden" r:id="rId1"/>
@@ -28,12 +28,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -751,87 +753,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -949,13 +870,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -965,6 +976,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,30 +1047,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1099,8 +1103,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -11500,6 +11502,66 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>103366</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF5D52A-47B7-4E7F-9481-1E53556CAAAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4552950" y="2352675"/>
+          <a:ext cx="1903591" cy="1014413"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16664,57 +16726,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="116" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="132" t="s">
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="113" t="s">
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="114" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="106">
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="79">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="108"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="81"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -16722,53 +16784,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="113" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="92" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="106" t="str">
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="79" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="108"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="81"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -16776,45 +16838,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="108"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="81"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -16851,1034 +16913,1190 @@
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="109" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="112" t="s">
+      <c r="H7" s="84"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="109" t="s">
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="109" t="s">
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="110"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="83"/>
     </row>
     <row r="8" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94">
+      <c r="C8" s="131"/>
+      <c r="D8" s="132">
         <v>43578</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97" t="s">
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100" t="s">
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="103" t="s">
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="100" t="s">
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="102"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="140"/>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="87"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="126"/>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="87"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="126"/>
     </row>
     <row r="11" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="87"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="126"/>
     </row>
     <row r="12" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="87"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="126"/>
     </row>
     <row r="13" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="87"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="129"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="126"/>
     </row>
     <row r="14" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="87"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="126"/>
     </row>
     <row r="15" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="87"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="125"/>
+      <c r="AI15" s="126"/>
     </row>
     <row r="16" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="87"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="129"/>
+      <c r="AF16" s="124"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="126"/>
     </row>
     <row r="17" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="87"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="129"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="126"/>
     </row>
     <row r="18" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="87"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="129"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="125"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="126"/>
     </row>
     <row r="19" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="87"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="129"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="126"/>
     </row>
     <row r="20" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="87"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="126"/>
     </row>
     <row r="21" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="87"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="129"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="125"/>
+      <c r="AH21" s="125"/>
+      <c r="AI21" s="126"/>
     </row>
     <row r="22" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="87"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="129"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="125"/>
+      <c r="AH22" s="125"/>
+      <c r="AI22" s="126"/>
     </row>
     <row r="23" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="87"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="125"/>
+      <c r="AH23" s="125"/>
+      <c r="AI23" s="126"/>
     </row>
     <row r="24" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="87"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="129"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="125"/>
+      <c r="AH24" s="125"/>
+      <c r="AI24" s="126"/>
     </row>
     <row r="25" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="87"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="129"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="125"/>
+      <c r="AI25" s="126"/>
     </row>
     <row r="26" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="87"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="125"/>
+      <c r="AH26" s="125"/>
+      <c r="AI26" s="126"/>
     </row>
     <row r="27" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="87"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="129"/>
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="125"/>
+      <c r="AH27" s="125"/>
+      <c r="AI27" s="126"/>
     </row>
     <row r="28" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="87"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="129"/>
+      <c r="AF28" s="124"/>
+      <c r="AG28" s="125"/>
+      <c r="AH28" s="125"/>
+      <c r="AI28" s="126"/>
     </row>
     <row r="29" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="87"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="129"/>
+      <c r="AF29" s="124"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="125"/>
+      <c r="AI29" s="126"/>
     </row>
     <row r="30" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="86"/>
-      <c r="AI30" s="87"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="129"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="125"/>
+      <c r="AH30" s="125"/>
+      <c r="AI30" s="126"/>
     </row>
     <row r="31" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="85"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="87"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="129"/>
+      <c r="AF31" s="124"/>
+      <c r="AG31" s="125"/>
+      <c r="AH31" s="125"/>
+      <c r="AI31" s="126"/>
     </row>
     <row r="32" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="86"/>
-      <c r="AI32" s="87"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="129"/>
+      <c r="AF32" s="124"/>
+      <c r="AG32" s="125"/>
+      <c r="AH32" s="125"/>
+      <c r="AI32" s="126"/>
     </row>
     <row r="33" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="89"/>
-      <c r="AE33" s="90"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="87"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="125"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="129"/>
+      <c r="AF33" s="124"/>
+      <c r="AG33" s="125"/>
+      <c r="AH33" s="125"/>
+      <c r="AI33" s="126"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -17902,162 +18120,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18213,163 +18275,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="151" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="160" t="str">
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="174" t="str">
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="171">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="145">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="173"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="171" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="172"/>
-      <c r="AI2" s="173"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="174" t="str">
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="171" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="173"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -19355,14 +19417,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -19372,6 +19426,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -19397,163 +19459,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="177" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="186" t="str">
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="174" t="str">
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="171">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="145">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="173"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="171" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="172"/>
-      <c r="AI2" s="173"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="174" t="str">
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="171" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="173"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -23225,14 +23287,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -23242,6 +23296,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -23265,7 +23327,7 @@
   <dimension ref="A1:AL91"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -23274,163 +23336,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="177" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="186" t="str">
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="174" t="str">
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="171">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="145">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="173"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="171" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="172"/>
-      <c r="AI2" s="173"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="174" t="str">
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="171" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="173"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -26653,14 +26715,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -26670,6 +26724,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -26690,7 +26752,7 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -26699,163 +26761,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148" t="str">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="177" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="186" t="str">
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="174" t="str">
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="171">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="145">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="173"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="147"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148" t="str">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="171" t="str">
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="172"/>
-      <c r="AI2" s="173"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="147"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148" t="str">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="174" t="str">
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="171" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="173"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="147"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -30499,14 +30561,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30516,6 +30570,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A6705-BB8D-4622-A332-6B91520694A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACCEA43-0DDE-4660-AEBF-4D43AE4B68AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="5415" windowWidth="26940" windowHeight="8535" tabRatio="894" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="894" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" state="hidden" r:id="rId1"/>
@@ -1156,8 +1156,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8496300" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3799,8 +3799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="6867525"/>
-          <a:ext cx="685800" cy="361950"/>
+          <a:off x="8435340" y="6833235"/>
+          <a:ext cx="727710" cy="361950"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4040,8 +4040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="7343775"/>
-          <a:ext cx="685800" cy="371475"/>
+          <a:off x="8435340" y="7309485"/>
+          <a:ext cx="727710" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4492,8 +4492,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2695575" y="7191375"/>
-          <a:ext cx="142875" cy="161925"/>
+          <a:off x="2884170" y="7157085"/>
+          <a:ext cx="163830" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -5527,6 +5527,17 @@
         <a:p>
           <a:pPr algn="ctr" rtl="0"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -5535,7 +5546,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>login</a:t>
+            <a:t>ogin</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8699,8 +8710,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="6257925"/>
-          <a:ext cx="685800" cy="361950"/>
+          <a:off x="8435340" y="6223635"/>
+          <a:ext cx="727710" cy="361950"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -8940,8 +8951,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="6734175"/>
-          <a:ext cx="685800" cy="371475"/>
+          <a:off x="8435340" y="6699885"/>
+          <a:ext cx="727710" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -9392,8 +9403,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2695575" y="6581775"/>
-          <a:ext cx="142875" cy="161925"/>
+          <a:off x="2884170" y="6547485"/>
+          <a:ext cx="163830" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -10467,12 +10478,20 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" sz="1000">
               <a:effectLst/>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>login</a:t>
+            <a:t>ogin</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -10761,8 +10780,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2381250" y="3028950"/>
-          <a:ext cx="142875" cy="161925"/>
+          <a:off x="2548890" y="2994660"/>
+          <a:ext cx="163830" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -10927,15 +10946,16 @@
             <a:t>Project </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>inquiry</a:t>
+            <a:t>search</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="900">
             <a:solidFill>
@@ -11425,7 +11445,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6657975" y="4362450"/>
+          <a:off x="7160895" y="4328160"/>
           <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
@@ -13603,8 +13623,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="6867525"/>
-          <a:ext cx="685800" cy="361950"/>
+          <a:off x="8435340" y="6833235"/>
+          <a:ext cx="727710" cy="361950"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -13844,8 +13864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="7343775"/>
-          <a:ext cx="685800" cy="371475"/>
+          <a:off x="8435340" y="7309485"/>
+          <a:ext cx="727710" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -14296,8 +14316,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2695575" y="7191375"/>
-          <a:ext cx="142875" cy="161925"/>
+          <a:off x="2884170" y="7157085"/>
+          <a:ext cx="163830" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -15411,7 +15431,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Project list output batch in the period</a:t>
+            <a:t>Project list output batch</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15446,8 +15466,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4381500" y="3724275"/>
-          <a:ext cx="142875" cy="161925"/>
+          <a:off x="4695825" y="3689985"/>
+          <a:ext cx="163830" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -15639,7 +15659,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="825419" cy="416461"/>
+    <xdr:ext cx="1145891" cy="283796"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="68" name="Text Box 367">
@@ -15655,8 +15675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6629898" y="2733675"/>
-          <a:ext cx="825419" cy="416461"/>
+          <a:off x="7132818" y="2699385"/>
+          <a:ext cx="1145891" cy="283796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15707,7 +15727,7 @@
         <a:p>
           <a:pPr algn="l" rtl="0"/>
           <a:r>
-            <a:rPr lang="ja-JP" sz="900">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15715,26 +15735,16 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>List of projects </a:t>
+            <a:t>Project list in the period</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>within the period</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16071,42 +16081,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -16114,12 +16124,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -16130,42 +16140,42 @@
       <c r="J25" s="78"/>
       <c r="K25" s="78"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -16175,7 +16185,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="29"/>
@@ -16188,515 +16198,515 @@
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
       <c r="S35" s="23"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="24"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="23"/>
       <c r="S36" s="24"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="26"/>
       <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -16720,9 +16730,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="14"/>
+    <col min="1" max="16384" width="4.875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -17936,7 +17946,7 @@
       <c r="AH33" s="125"/>
       <c r="AI33" s="126"/>
     </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
@@ -18136,145 +18146,145 @@
   <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="66" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="46" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="66" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="46"/>
-    <col min="257" max="290" width="4.83203125" style="46" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="46"/>
-    <col min="513" max="546" width="4.83203125" style="46" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="46"/>
-    <col min="769" max="802" width="4.83203125" style="46" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="46"/>
-    <col min="1025" max="1058" width="4.83203125" style="46" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="46"/>
-    <col min="1281" max="1314" width="4.83203125" style="46" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="46"/>
-    <col min="1537" max="1570" width="4.83203125" style="46" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="46"/>
-    <col min="1793" max="1826" width="4.83203125" style="46" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="46"/>
-    <col min="2049" max="2082" width="4.83203125" style="46" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="46"/>
-    <col min="2305" max="2338" width="4.83203125" style="46" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="46"/>
-    <col min="2561" max="2594" width="4.83203125" style="46" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="46"/>
-    <col min="2817" max="2850" width="4.83203125" style="46" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="46"/>
-    <col min="3073" max="3106" width="4.83203125" style="46" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="46"/>
-    <col min="3329" max="3362" width="4.83203125" style="46" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="46"/>
-    <col min="3585" max="3618" width="4.83203125" style="46" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="46"/>
-    <col min="3841" max="3874" width="4.83203125" style="46" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="46"/>
-    <col min="4097" max="4130" width="4.83203125" style="46" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="46"/>
-    <col min="4353" max="4386" width="4.83203125" style="46" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="46"/>
-    <col min="4609" max="4642" width="4.83203125" style="46" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="46"/>
-    <col min="4865" max="4898" width="4.83203125" style="46" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="46"/>
-    <col min="5121" max="5154" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="46"/>
-    <col min="5377" max="5410" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="46"/>
-    <col min="5633" max="5666" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="46"/>
-    <col min="5889" max="5922" width="4.83203125" style="46" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="46"/>
-    <col min="6145" max="6178" width="4.83203125" style="46" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="46"/>
-    <col min="6401" max="6434" width="4.83203125" style="46" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="46"/>
-    <col min="6657" max="6690" width="4.83203125" style="46" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="46"/>
-    <col min="6913" max="6946" width="4.83203125" style="46" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="46"/>
-    <col min="7169" max="7202" width="4.83203125" style="46" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="46"/>
-    <col min="7425" max="7458" width="4.83203125" style="46" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="46"/>
-    <col min="7681" max="7714" width="4.83203125" style="46" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="46"/>
-    <col min="7937" max="7970" width="4.83203125" style="46" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="46"/>
-    <col min="8193" max="8226" width="4.83203125" style="46" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="46"/>
-    <col min="8449" max="8482" width="4.83203125" style="46" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="46"/>
-    <col min="8705" max="8738" width="4.83203125" style="46" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="46"/>
-    <col min="8961" max="8994" width="4.83203125" style="46" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="46"/>
-    <col min="9217" max="9250" width="4.83203125" style="46" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="46"/>
-    <col min="9473" max="9506" width="4.83203125" style="46" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="46"/>
-    <col min="9729" max="9762" width="4.83203125" style="46" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="46"/>
-    <col min="9985" max="10018" width="4.83203125" style="46" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="46"/>
-    <col min="10241" max="10274" width="4.83203125" style="46" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="46"/>
-    <col min="10497" max="10530" width="4.83203125" style="46" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="46"/>
-    <col min="10753" max="10786" width="4.83203125" style="46" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="46"/>
-    <col min="11009" max="11042" width="4.83203125" style="46" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="46"/>
-    <col min="11265" max="11298" width="4.83203125" style="46" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="46"/>
-    <col min="11521" max="11554" width="4.83203125" style="46" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="46"/>
-    <col min="11777" max="11810" width="4.83203125" style="46" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="46"/>
-    <col min="12033" max="12066" width="4.83203125" style="46" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="46"/>
-    <col min="12289" max="12322" width="4.83203125" style="46" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="46"/>
-    <col min="12545" max="12578" width="4.83203125" style="46" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="46"/>
-    <col min="12801" max="12834" width="4.83203125" style="46" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="46"/>
-    <col min="13057" max="13090" width="4.83203125" style="46" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="46"/>
-    <col min="13313" max="13346" width="4.83203125" style="46" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="46"/>
-    <col min="13569" max="13602" width="4.83203125" style="46" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="46"/>
-    <col min="13825" max="13858" width="4.83203125" style="46" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="46"/>
-    <col min="14081" max="14114" width="4.83203125" style="46" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="46"/>
-    <col min="14337" max="14370" width="4.83203125" style="46" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="46"/>
-    <col min="14593" max="14626" width="4.83203125" style="46" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="46"/>
-    <col min="14849" max="14882" width="4.83203125" style="46" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="46"/>
-    <col min="15105" max="15138" width="4.83203125" style="46" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="46"/>
-    <col min="15361" max="15394" width="4.83203125" style="46" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="46"/>
-    <col min="15617" max="15650" width="4.83203125" style="46" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="46"/>
-    <col min="15873" max="15906" width="4.83203125" style="46" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="46"/>
-    <col min="16129" max="16162" width="4.83203125" style="46" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="46"/>
+    <col min="1" max="16" width="4.875" style="46" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="66" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="46" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="66" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="46"/>
+    <col min="257" max="290" width="4.875" style="46" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="46"/>
+    <col min="513" max="546" width="4.875" style="46" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="46"/>
+    <col min="769" max="802" width="4.875" style="46" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="46"/>
+    <col min="1025" max="1058" width="4.875" style="46" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="46"/>
+    <col min="1281" max="1314" width="4.875" style="46" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="46"/>
+    <col min="1537" max="1570" width="4.875" style="46" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="46"/>
+    <col min="1793" max="1826" width="4.875" style="46" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="46"/>
+    <col min="2049" max="2082" width="4.875" style="46" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="46"/>
+    <col min="2305" max="2338" width="4.875" style="46" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="46"/>
+    <col min="2561" max="2594" width="4.875" style="46" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="46"/>
+    <col min="2817" max="2850" width="4.875" style="46" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="46"/>
+    <col min="3073" max="3106" width="4.875" style="46" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="46"/>
+    <col min="3329" max="3362" width="4.875" style="46" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="46"/>
+    <col min="3585" max="3618" width="4.875" style="46" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="46"/>
+    <col min="3841" max="3874" width="4.875" style="46" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="46"/>
+    <col min="4097" max="4130" width="4.875" style="46" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="46"/>
+    <col min="4353" max="4386" width="4.875" style="46" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="46"/>
+    <col min="4609" max="4642" width="4.875" style="46" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="46"/>
+    <col min="4865" max="4898" width="4.875" style="46" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="46"/>
+    <col min="5121" max="5154" width="4.875" style="46" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="46"/>
+    <col min="5377" max="5410" width="4.875" style="46" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="46"/>
+    <col min="5633" max="5666" width="4.875" style="46" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="46"/>
+    <col min="5889" max="5922" width="4.875" style="46" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="46"/>
+    <col min="6145" max="6178" width="4.875" style="46" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="46"/>
+    <col min="6401" max="6434" width="4.875" style="46" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="46"/>
+    <col min="6657" max="6690" width="4.875" style="46" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="46"/>
+    <col min="6913" max="6946" width="4.875" style="46" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="46"/>
+    <col min="7169" max="7202" width="4.875" style="46" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="46"/>
+    <col min="7425" max="7458" width="4.875" style="46" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="46"/>
+    <col min="7681" max="7714" width="4.875" style="46" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="46"/>
+    <col min="7937" max="7970" width="4.875" style="46" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="46"/>
+    <col min="8193" max="8226" width="4.875" style="46" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="46"/>
+    <col min="8449" max="8482" width="4.875" style="46" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="46"/>
+    <col min="8705" max="8738" width="4.875" style="46" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="46"/>
+    <col min="8961" max="8994" width="4.875" style="46" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="46"/>
+    <col min="9217" max="9250" width="4.875" style="46" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="46"/>
+    <col min="9473" max="9506" width="4.875" style="46" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="46"/>
+    <col min="9729" max="9762" width="4.875" style="46" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="46"/>
+    <col min="9985" max="10018" width="4.875" style="46" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="46"/>
+    <col min="10241" max="10274" width="4.875" style="46" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="46"/>
+    <col min="10497" max="10530" width="4.875" style="46" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="46"/>
+    <col min="10753" max="10786" width="4.875" style="46" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="46"/>
+    <col min="11009" max="11042" width="4.875" style="46" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="46"/>
+    <col min="11265" max="11298" width="4.875" style="46" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="46"/>
+    <col min="11521" max="11554" width="4.875" style="46" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="46"/>
+    <col min="11777" max="11810" width="4.875" style="46" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="46"/>
+    <col min="12033" max="12066" width="4.875" style="46" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="46"/>
+    <col min="12289" max="12322" width="4.875" style="46" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="46"/>
+    <col min="12545" max="12578" width="4.875" style="46" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="46"/>
+    <col min="12801" max="12834" width="4.875" style="46" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="46"/>
+    <col min="13057" max="13090" width="4.875" style="46" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="46"/>
+    <col min="13313" max="13346" width="4.875" style="46" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="46"/>
+    <col min="13569" max="13602" width="4.875" style="46" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="46"/>
+    <col min="13825" max="13858" width="4.875" style="46" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="46"/>
+    <col min="14081" max="14114" width="4.875" style="46" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="46"/>
+    <col min="14337" max="14370" width="4.875" style="46" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="46"/>
+    <col min="14593" max="14626" width="4.875" style="46" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="46"/>
+    <col min="14849" max="14882" width="4.875" style="46" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="46"/>
+    <col min="15105" max="15138" width="4.875" style="46" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="46"/>
+    <col min="15361" max="15394" width="4.875" style="46" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="46"/>
+    <col min="15617" max="15650" width="4.875" style="46" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="46"/>
+    <col min="15873" max="15906" width="4.875" style="46" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="46"/>
+    <col min="16129" max="16162" width="4.875" style="46" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
@@ -18332,7 +18342,7 @@
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
         <v>3</v>
       </c>
@@ -18385,7 +18395,7 @@
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
         <v>5</v>
       </c>
@@ -18436,7 +18446,7 @@
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -18473,7 +18483,7 @@
       <c r="AH4" s="34"/>
       <c r="AI4" s="34"/>
     </row>
-    <row r="5" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -18512,7 +18522,7 @@
       <c r="AH5" s="34"/>
       <c r="AI5" s="34"/>
     </row>
-    <row r="6" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -18549,7 +18559,7 @@
       <c r="AH6" s="34"/>
       <c r="AI6" s="34"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="39" t="s">
         <v>52</v>
@@ -18588,7 +18598,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -18625,7 +18635,7 @@
       <c r="AH8" s="48"/>
       <c r="AI8" s="45"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="49" t="s">
         <v>53</v>
@@ -18664,7 +18674,7 @@
       <c r="AH9" s="50"/>
       <c r="AI9" s="38"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -18701,7 +18711,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="49" t="s">
         <v>54</v>
@@ -18740,7 +18750,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="34"/>
       <c r="C12" s="38"/>
@@ -18777,7 +18787,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="34"/>
       <c r="C13" s="38"/>
@@ -18814,7 +18824,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="49"/>
       <c r="C14" s="38"/>
@@ -18851,7 +18861,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="34"/>
       <c r="C15" s="38"/>
@@ -18888,7 +18898,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="34"/>
       <c r="C16" s="38"/>
@@ -18925,7 +18935,7 @@
       <c r="AH16" s="44"/>
       <c r="AI16" s="45"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -18962,7 +18972,7 @@
       <c r="AH17" s="54"/>
       <c r="AI17" s="55"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
@@ -18999,7 +19009,7 @@
       <c r="AH18" s="54"/>
       <c r="AI18" s="55"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
       <c r="B19" s="58"/>
       <c r="C19" s="38"/>
@@ -19036,7 +19046,7 @@
       <c r="AH19" s="54"/>
       <c r="AI19" s="55"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="58"/>
       <c r="C20" s="38"/>
@@ -19073,7 +19083,7 @@
       <c r="AH20" s="54"/>
       <c r="AI20" s="55"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>
       <c r="B21" s="58"/>
       <c r="C21" s="38"/>
@@ -19110,7 +19120,7 @@
       <c r="AH21" s="54"/>
       <c r="AI21" s="55"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="58"/>
       <c r="C22" s="38"/>
@@ -19147,7 +19157,7 @@
       <c r="AH22" s="54"/>
       <c r="AI22" s="55"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -19450,15 +19460,15 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="49"/>
+    <col min="1" max="16384" width="4.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
         <v>6</v>
       </c>
@@ -19516,7 +19526,7 @@
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
         <v>9</v>
       </c>
@@ -19569,7 +19579,7 @@
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
         <v>11</v>
       </c>
@@ -19620,7 +19630,7 @@
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -19657,7 +19667,7 @@
       <c r="AH4" s="77"/>
       <c r="AI4" s="77"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
         <v>48</v>
@@ -19696,7 +19706,7 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
     </row>
-    <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -19733,7 +19743,7 @@
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
     </row>
-    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -19770,7 +19780,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
     </row>
-    <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -19807,7 +19817,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
     </row>
-    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -19844,7 +19854,7 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="39"/>
     </row>
-    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -19881,7 +19891,7 @@
       <c r="AH10" s="39"/>
       <c r="AI10" s="39"/>
     </row>
-    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -19918,7 +19928,7 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -19955,7 +19965,7 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -19992,7 +20002,7 @@
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -20029,7 +20039,7 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -20066,7 +20076,7 @@
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -20103,7 +20113,7 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -20140,7 +20150,7 @@
       <c r="AH17" s="39"/>
       <c r="AI17" s="39"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -20177,7 +20187,7 @@
       <c r="AH18" s="39"/>
       <c r="AI18" s="39"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -20214,7 +20224,7 @@
       <c r="AH19" s="39"/>
       <c r="AI19" s="39"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -20251,7 +20261,7 @@
       <c r="AH20" s="39"/>
       <c r="AI20" s="39"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -20288,7 +20298,7 @@
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -20325,7 +20335,7 @@
       <c r="AH22" s="39"/>
       <c r="AI22" s="39"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -20362,7 +20372,7 @@
       <c r="AH23" s="39"/>
       <c r="AI23" s="39"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -20399,7 +20409,7 @@
       <c r="AH24" s="39"/>
       <c r="AI24" s="39"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -20436,7 +20446,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="39"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -20473,7 +20483,7 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -20510,7 +20520,7 @@
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -20547,7 +20557,7 @@
       <c r="AH28" s="39"/>
       <c r="AI28" s="39"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -20584,7 +20594,7 @@
       <c r="AH29" s="39"/>
       <c r="AI29" s="39"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -20621,7 +20631,7 @@
       <c r="AH30" s="39"/>
       <c r="AI30" s="39"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -20658,7 +20668,7 @@
       <c r="AH31" s="39"/>
       <c r="AI31" s="39"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -20695,7 +20705,7 @@
       <c r="AH32" s="39"/>
       <c r="AI32" s="39"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -20732,7 +20742,7 @@
       <c r="AH33" s="39"/>
       <c r="AI33" s="39"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -20769,7 +20779,7 @@
       <c r="AH34" s="39"/>
       <c r="AI34" s="39"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -20806,7 +20816,7 @@
       <c r="AH35" s="39"/>
       <c r="AI35" s="39"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -20843,7 +20853,7 @@
       <c r="AH36" s="39"/>
       <c r="AI36" s="39"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -20880,7 +20890,7 @@
       <c r="AH37" s="39"/>
       <c r="AI37" s="39"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -20917,7 +20927,7 @@
       <c r="AH38" s="39"/>
       <c r="AI38" s="39"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -20954,7 +20964,7 @@
       <c r="AH39" s="39"/>
       <c r="AI39" s="39"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -20991,7 +21001,7 @@
       <c r="AH40" s="39"/>
       <c r="AI40" s="39"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -21028,7 +21038,7 @@
       <c r="AH41" s="39"/>
       <c r="AI41" s="39"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -21065,7 +21075,7 @@
       <c r="AH42" s="39"/>
       <c r="AI42" s="39"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -21102,7 +21112,7 @@
       <c r="AH43" s="39"/>
       <c r="AI43" s="39"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -21139,7 +21149,7 @@
       <c r="AH44" s="39"/>
       <c r="AI44" s="39"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -21176,7 +21186,7 @@
       <c r="AH45" s="39"/>
       <c r="AI45" s="39"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -21213,7 +21223,7 @@
       <c r="AH46" s="39"/>
       <c r="AI46" s="39"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -21250,7 +21260,7 @@
       <c r="AH47" s="39"/>
       <c r="AI47" s="39"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -21287,7 +21297,7 @@
       <c r="AH48" s="39"/>
       <c r="AI48" s="39"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -21324,7 +21334,7 @@
       <c r="AH49" s="39"/>
       <c r="AI49" s="39"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -21361,7 +21371,7 @@
       <c r="AH50" s="39"/>
       <c r="AI50" s="39"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -21398,7 +21408,7 @@
       <c r="AH51" s="39"/>
       <c r="AI51" s="39"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -21435,7 +21445,7 @@
       <c r="AH52" s="39"/>
       <c r="AI52" s="39"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -21472,7 +21482,7 @@
       <c r="AH53" s="39"/>
       <c r="AI53" s="39"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -21509,7 +21519,7 @@
       <c r="AH54" s="39"/>
       <c r="AI54" s="39"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -21546,7 +21556,7 @@
       <c r="AH55" s="39"/>
       <c r="AI55" s="39"/>
     </row>
-    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -21583,7 +21593,7 @@
       <c r="AH56" s="39"/>
       <c r="AI56" s="39"/>
     </row>
-    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -21620,7 +21630,7 @@
       <c r="AH57" s="39"/>
       <c r="AI57" s="39"/>
     </row>
-    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -21657,7 +21667,7 @@
       <c r="AH58" s="39"/>
       <c r="AI58" s="39"/>
     </row>
-    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -21694,7 +21704,7 @@
       <c r="AH59" s="39"/>
       <c r="AI59" s="39"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -21731,7 +21741,7 @@
       <c r="AH60" s="39"/>
       <c r="AI60" s="39"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -21768,7 +21778,7 @@
       <c r="AH61" s="39"/>
       <c r="AI61" s="39"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -21805,7 +21815,7 @@
       <c r="AH62" s="39"/>
       <c r="AI62" s="39"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -21842,7 +21852,7 @@
       <c r="AH63" s="39"/>
       <c r="AI63" s="39"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -21879,7 +21889,7 @@
       <c r="AH64" s="39"/>
       <c r="AI64" s="39"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -21916,7 +21926,7 @@
       <c r="AH65" s="39"/>
       <c r="AI65" s="39"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -21953,7 +21963,7 @@
       <c r="AH66" s="39"/>
       <c r="AI66" s="39"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -21990,7 +22000,7 @@
       <c r="AH67" s="39"/>
       <c r="AI67" s="39"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -22027,7 +22037,7 @@
       <c r="AH68" s="39"/>
       <c r="AI68" s="39"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -22064,7 +22074,7 @@
       <c r="AH69" s="39"/>
       <c r="AI69" s="39"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -22101,7 +22111,7 @@
       <c r="AH70" s="39"/>
       <c r="AI70" s="39"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -22138,7 +22148,7 @@
       <c r="AH71" s="39"/>
       <c r="AI71" s="39"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -22175,7 +22185,7 @@
       <c r="AH72" s="39"/>
       <c r="AI72" s="39"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -22212,7 +22222,7 @@
       <c r="AH73" s="39"/>
       <c r="AI73" s="39"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -22249,7 +22259,7 @@
       <c r="AH74" s="39"/>
       <c r="AI74" s="39"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -22286,7 +22296,7 @@
       <c r="AH75" s="39"/>
       <c r="AI75" s="39"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -22323,7 +22333,7 @@
       <c r="AH76" s="39"/>
       <c r="AI76" s="39"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -22360,7 +22370,7 @@
       <c r="AH77" s="39"/>
       <c r="AI77" s="39"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -22397,7 +22407,7 @@
       <c r="AH78" s="39"/>
       <c r="AI78" s="39"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -22434,7 +22444,7 @@
       <c r="AH79" s="39"/>
       <c r="AI79" s="39"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -22471,7 +22481,7 @@
       <c r="AH80" s="39"/>
       <c r="AI80" s="39"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -22508,7 +22518,7 @@
       <c r="AH81" s="39"/>
       <c r="AI81" s="39"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -22545,7 +22555,7 @@
       <c r="AH82" s="39"/>
       <c r="AI82" s="39"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -22582,7 +22592,7 @@
       <c r="AH83" s="39"/>
       <c r="AI83" s="39"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -22619,7 +22629,7 @@
       <c r="AH84" s="39"/>
       <c r="AI84" s="39"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -22656,7 +22666,7 @@
       <c r="AH85" s="39"/>
       <c r="AI85" s="39"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -22693,7 +22703,7 @@
       <c r="AH86" s="39"/>
       <c r="AI86" s="39"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -22730,7 +22740,7 @@
       <c r="AH87" s="39"/>
       <c r="AI87" s="39"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -22767,7 +22777,7 @@
       <c r="AH88" s="39"/>
       <c r="AI88" s="39"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -22804,7 +22814,7 @@
       <c r="AH89" s="39"/>
       <c r="AI89" s="39"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -22841,7 +22851,7 @@
       <c r="AH90" s="39"/>
       <c r="AI90" s="39"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -22878,7 +22888,7 @@
       <c r="AH91" s="39"/>
       <c r="AI91" s="39"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -22915,7 +22925,7 @@
       <c r="AH92" s="39"/>
       <c r="AI92" s="39"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -22952,7 +22962,7 @@
       <c r="AH93" s="39"/>
       <c r="AI93" s="39"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -22989,7 +22999,7 @@
       <c r="AH94" s="39"/>
       <c r="AI94" s="39"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -23026,7 +23036,7 @@
       <c r="AH95" s="39"/>
       <c r="AI95" s="39"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -23063,7 +23073,7 @@
       <c r="AH96" s="39"/>
       <c r="AI96" s="39"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -23100,7 +23110,7 @@
       <c r="AH97" s="39"/>
       <c r="AI97" s="39"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -23137,7 +23147,7 @@
       <c r="AH98" s="39"/>
       <c r="AI98" s="39"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -23174,7 +23184,7 @@
       <c r="AH99" s="39"/>
       <c r="AI99" s="39"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -23211,7 +23221,7 @@
       <c r="AH100" s="39"/>
       <c r="AI100" s="39"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -23248,7 +23258,7 @@
       <c r="AH101" s="39"/>
       <c r="AI101" s="39"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -23330,12 +23340,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="49"/>
+    <col min="1" max="16384" width="4.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
         <v>12</v>
       </c>
@@ -23393,7 +23403,7 @@
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
         <v>15</v>
       </c>
@@ -23446,7 +23456,7 @@
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
         <v>17</v>
       </c>
@@ -23497,7 +23507,7 @@
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -23534,7 +23544,7 @@
       <c r="AH4" s="77"/>
       <c r="AI4" s="77"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
         <v>49</v>
@@ -23573,7 +23583,7 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -23610,7 +23620,7 @@
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -23647,7 +23657,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -23684,7 +23694,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
     </row>
-    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -23721,7 +23731,7 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="39"/>
     </row>
-    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -23758,7 +23768,7 @@
       <c r="AH10" s="39"/>
       <c r="AI10" s="39"/>
     </row>
-    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -23795,7 +23805,7 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
     </row>
-    <row r="12" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -23832,7 +23842,7 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
     </row>
-    <row r="13" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -23869,7 +23879,7 @@
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
     </row>
-    <row r="14" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -23906,7 +23916,7 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -23943,7 +23953,7 @@
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -23978,7 +23988,7 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -24013,7 +24023,7 @@
       <c r="AH17" s="39"/>
       <c r="AI17" s="39"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -24048,7 +24058,7 @@
       <c r="AH18" s="39"/>
       <c r="AI18" s="39"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -24083,7 +24093,7 @@
       <c r="AH19" s="39"/>
       <c r="AI19" s="39"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -24118,7 +24128,7 @@
       <c r="AH20" s="39"/>
       <c r="AI20" s="39"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -24153,7 +24163,7 @@
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -24188,7 +24198,7 @@
       <c r="AH22" s="39"/>
       <c r="AI22" s="39"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -24223,7 +24233,7 @@
       <c r="AH23" s="39"/>
       <c r="AI23" s="39"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -24258,7 +24268,7 @@
       <c r="AH24" s="39"/>
       <c r="AI24" s="39"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -24293,7 +24303,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="39"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -24328,7 +24338,7 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -24363,7 +24373,7 @@
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -24398,7 +24408,7 @@
       <c r="AH28" s="39"/>
       <c r="AI28" s="39"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -24433,7 +24443,7 @@
       <c r="AH29" s="39"/>
       <c r="AI29" s="39"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -24468,7 +24478,7 @@
       <c r="AH30" s="39"/>
       <c r="AI30" s="39"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -24503,7 +24513,7 @@
       <c r="AH31" s="39"/>
       <c r="AI31" s="39"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -24538,7 +24548,7 @@
       <c r="AH32" s="39"/>
       <c r="AI32" s="39"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -24573,7 +24583,7 @@
       <c r="AH33" s="39"/>
       <c r="AI33" s="39"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -24608,7 +24618,7 @@
       <c r="AH34" s="39"/>
       <c r="AI34" s="39"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -24643,7 +24653,7 @@
       <c r="AH35" s="39"/>
       <c r="AI35" s="39"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -24678,7 +24688,7 @@
       <c r="AH36" s="39"/>
       <c r="AI36" s="39"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -24715,7 +24725,7 @@
       <c r="AH37" s="39"/>
       <c r="AI37" s="39"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -24752,7 +24762,7 @@
       <c r="AH38" s="39"/>
       <c r="AI38" s="39"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -24789,7 +24799,7 @@
       <c r="AH39" s="39"/>
       <c r="AI39" s="39"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -24826,7 +24836,7 @@
       <c r="AH40" s="39"/>
       <c r="AI40" s="39"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -24863,7 +24873,7 @@
       <c r="AH41" s="39"/>
       <c r="AI41" s="39"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -24900,7 +24910,7 @@
       <c r="AH42" s="39"/>
       <c r="AI42" s="39"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -24937,7 +24947,7 @@
       <c r="AH43" s="39"/>
       <c r="AI43" s="39"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -24974,7 +24984,7 @@
       <c r="AH44" s="39"/>
       <c r="AI44" s="39"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -25011,7 +25021,7 @@
       <c r="AH45" s="39"/>
       <c r="AI45" s="39"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -25048,7 +25058,7 @@
       <c r="AH46" s="39"/>
       <c r="AI46" s="39"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -25085,7 +25095,7 @@
       <c r="AH47" s="39"/>
       <c r="AI47" s="39"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -25122,7 +25132,7 @@
       <c r="AH48" s="39"/>
       <c r="AI48" s="39"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -25159,7 +25169,7 @@
       <c r="AH49" s="39"/>
       <c r="AI49" s="39"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -25196,7 +25206,7 @@
       <c r="AH50" s="39"/>
       <c r="AI50" s="39"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -25233,7 +25243,7 @@
       <c r="AH51" s="39"/>
       <c r="AI51" s="39"/>
     </row>
-    <row r="52" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -25270,7 +25280,7 @@
       <c r="AH52" s="39"/>
       <c r="AI52" s="39"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -25307,7 +25317,7 @@
       <c r="AH53" s="39"/>
       <c r="AI53" s="39"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -25344,7 +25354,7 @@
       <c r="AH54" s="39"/>
       <c r="AI54" s="39"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -25381,7 +25391,7 @@
       <c r="AH55" s="39"/>
       <c r="AI55" s="39"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -25418,7 +25428,7 @@
       <c r="AH56" s="39"/>
       <c r="AI56" s="39"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -25455,7 +25465,7 @@
       <c r="AH57" s="39"/>
       <c r="AI57" s="39"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -25492,7 +25502,7 @@
       <c r="AH58" s="39"/>
       <c r="AI58" s="39"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -25529,7 +25539,7 @@
       <c r="AH59" s="39"/>
       <c r="AI59" s="39"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -25566,7 +25576,7 @@
       <c r="AH60" s="39"/>
       <c r="AI60" s="39"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -25603,7 +25613,7 @@
       <c r="AH61" s="39"/>
       <c r="AI61" s="39"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -25640,7 +25650,7 @@
       <c r="AH62" s="39"/>
       <c r="AI62" s="39"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -25677,7 +25687,7 @@
       <c r="AH63" s="39"/>
       <c r="AI63" s="39"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -25714,7 +25724,7 @@
       <c r="AH64" s="39"/>
       <c r="AI64" s="39"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -25751,7 +25761,7 @@
       <c r="AH65" s="39"/>
       <c r="AI65" s="39"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -25788,7 +25798,7 @@
       <c r="AH66" s="39"/>
       <c r="AI66" s="39"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -25825,7 +25835,7 @@
       <c r="AH67" s="39"/>
       <c r="AI67" s="39"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -25862,7 +25872,7 @@
       <c r="AH68" s="39"/>
       <c r="AI68" s="39"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -25899,7 +25909,7 @@
       <c r="AH69" s="39"/>
       <c r="AI69" s="39"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -25936,7 +25946,7 @@
       <c r="AH70" s="39"/>
       <c r="AI70" s="39"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -25973,7 +25983,7 @@
       <c r="AH71" s="39"/>
       <c r="AI71" s="39"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -26010,7 +26020,7 @@
       <c r="AH72" s="39"/>
       <c r="AI72" s="39"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -26047,7 +26057,7 @@
       <c r="AH73" s="39"/>
       <c r="AI73" s="39"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -26084,7 +26094,7 @@
       <c r="AH74" s="39"/>
       <c r="AI74" s="39"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -26121,7 +26131,7 @@
       <c r="AH75" s="39"/>
       <c r="AI75" s="39"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -26158,7 +26168,7 @@
       <c r="AH76" s="39"/>
       <c r="AI76" s="39"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -26195,7 +26205,7 @@
       <c r="AH77" s="39"/>
       <c r="AI77" s="39"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -26232,7 +26242,7 @@
       <c r="AH78" s="39"/>
       <c r="AI78" s="39"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -26269,7 +26279,7 @@
       <c r="AH79" s="39"/>
       <c r="AI79" s="39"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -26306,7 +26316,7 @@
       <c r="AH80" s="39"/>
       <c r="AI80" s="39"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -26343,7 +26353,7 @@
       <c r="AH81" s="39"/>
       <c r="AI81" s="39"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -26380,7 +26390,7 @@
       <c r="AH82" s="39"/>
       <c r="AI82" s="39"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -26417,7 +26427,7 @@
       <c r="AH83" s="39"/>
       <c r="AI83" s="39"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -26454,7 +26464,7 @@
       <c r="AH84" s="39"/>
       <c r="AI84" s="39"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -26491,7 +26501,7 @@
       <c r="AH85" s="39"/>
       <c r="AI85" s="39"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -26528,7 +26538,7 @@
       <c r="AH86" s="39"/>
       <c r="AI86" s="39"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -26565,7 +26575,7 @@
       <c r="AH87" s="39"/>
       <c r="AI87" s="39"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -26602,7 +26612,7 @@
       <c r="AH88" s="39"/>
       <c r="AI88" s="39"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -26639,7 +26649,7 @@
       <c r="AH89" s="39"/>
       <c r="AI89" s="39"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -26676,7 +26686,7 @@
       <c r="AH90" s="39"/>
       <c r="AI90" s="39"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -26755,12 +26765,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="49"/>
+    <col min="1" max="16384" width="4.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
         <v>18</v>
       </c>
@@ -26818,7 +26828,7 @@
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
         <v>21</v>
       </c>
@@ -26871,7 +26881,7 @@
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
         <v>23</v>
       </c>
@@ -26922,7 +26932,7 @@
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -26959,7 +26969,7 @@
       <c r="AH4" s="77"/>
       <c r="AI4" s="77"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
         <v>50</v>
@@ -26998,7 +27008,7 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
     </row>
-    <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -27035,7 +27045,7 @@
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
     </row>
-    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -27072,7 +27082,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
     </row>
-    <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -27109,7 +27119,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
     </row>
-    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -27146,7 +27156,7 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="39"/>
     </row>
-    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -27183,7 +27193,7 @@
       <c r="AH10" s="39"/>
       <c r="AI10" s="39"/>
     </row>
-    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -27220,7 +27230,7 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -27257,7 +27267,7 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -27292,7 +27302,7 @@
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -27327,7 +27337,7 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -27362,7 +27372,7 @@
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -27397,7 +27407,7 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -27432,7 +27442,7 @@
       <c r="AH17" s="39"/>
       <c r="AI17" s="39"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -27467,7 +27477,7 @@
       <c r="AH18" s="39"/>
       <c r="AI18" s="39"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -27502,7 +27512,7 @@
       <c r="AH19" s="39"/>
       <c r="AI19" s="39"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -27537,7 +27547,7 @@
       <c r="AH20" s="39"/>
       <c r="AI20" s="39"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -27572,7 +27582,7 @@
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -27607,7 +27617,7 @@
       <c r="AH22" s="39"/>
       <c r="AI22" s="39"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -27642,7 +27652,7 @@
       <c r="AH23" s="39"/>
       <c r="AI23" s="39"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -27677,7 +27687,7 @@
       <c r="AH24" s="39"/>
       <c r="AI24" s="39"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -27712,7 +27722,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="39"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -27747,7 +27757,7 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -27784,7 +27794,7 @@
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -27821,7 +27831,7 @@
       <c r="AH28" s="39"/>
       <c r="AI28" s="39"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -27858,7 +27868,7 @@
       <c r="AH29" s="39"/>
       <c r="AI29" s="39"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -27895,7 +27905,7 @@
       <c r="AH30" s="39"/>
       <c r="AI30" s="39"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -27932,7 +27942,7 @@
       <c r="AH31" s="39"/>
       <c r="AI31" s="39"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -27969,7 +27979,7 @@
       <c r="AH32" s="39"/>
       <c r="AI32" s="39"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -28006,7 +28016,7 @@
       <c r="AH33" s="39"/>
       <c r="AI33" s="39"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -28043,7 +28053,7 @@
       <c r="AH34" s="39"/>
       <c r="AI34" s="39"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -28080,7 +28090,7 @@
       <c r="AH35" s="39"/>
       <c r="AI35" s="39"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -28117,7 +28127,7 @@
       <c r="AH36" s="39"/>
       <c r="AI36" s="39"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -28154,7 +28164,7 @@
       <c r="AH37" s="39"/>
       <c r="AI37" s="39"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -28191,7 +28201,7 @@
       <c r="AH38" s="39"/>
       <c r="AI38" s="39"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -28228,7 +28238,7 @@
       <c r="AH39" s="39"/>
       <c r="AI39" s="39"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -28265,7 +28275,7 @@
       <c r="AH40" s="39"/>
       <c r="AI40" s="39"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -28302,7 +28312,7 @@
       <c r="AH41" s="39"/>
       <c r="AI41" s="39"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -28339,7 +28349,7 @@
       <c r="AH42" s="39"/>
       <c r="AI42" s="39"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -28376,7 +28386,7 @@
       <c r="AH43" s="39"/>
       <c r="AI43" s="39"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -28413,7 +28423,7 @@
       <c r="AH44" s="39"/>
       <c r="AI44" s="39"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -28450,7 +28460,7 @@
       <c r="AH45" s="39"/>
       <c r="AI45" s="39"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -28487,7 +28497,7 @@
       <c r="AH46" s="39"/>
       <c r="AI46" s="39"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -28524,7 +28534,7 @@
       <c r="AH47" s="39"/>
       <c r="AI47" s="39"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -28561,7 +28571,7 @@
       <c r="AH48" s="39"/>
       <c r="AI48" s="39"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -28598,7 +28608,7 @@
       <c r="AH49" s="39"/>
       <c r="AI49" s="39"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -28635,7 +28645,7 @@
       <c r="AH50" s="39"/>
       <c r="AI50" s="39"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -28672,7 +28682,7 @@
       <c r="AH51" s="39"/>
       <c r="AI51" s="39"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -28709,7 +28719,7 @@
       <c r="AH52" s="39"/>
       <c r="AI52" s="39"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -28746,7 +28756,7 @@
       <c r="AH53" s="39"/>
       <c r="AI53" s="39"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -28783,7 +28793,7 @@
       <c r="AH54" s="39"/>
       <c r="AI54" s="39"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -28820,7 +28830,7 @@
       <c r="AH55" s="39"/>
       <c r="AI55" s="39"/>
     </row>
-    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -28857,7 +28867,7 @@
       <c r="AH56" s="39"/>
       <c r="AI56" s="39"/>
     </row>
-    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -28894,7 +28904,7 @@
       <c r="AH57" s="39"/>
       <c r="AI57" s="39"/>
     </row>
-    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -28931,7 +28941,7 @@
       <c r="AH58" s="39"/>
       <c r="AI58" s="39"/>
     </row>
-    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -28968,7 +28978,7 @@
       <c r="AH59" s="39"/>
       <c r="AI59" s="39"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -29005,7 +29015,7 @@
       <c r="AH60" s="39"/>
       <c r="AI60" s="39"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -29042,7 +29052,7 @@
       <c r="AH61" s="39"/>
       <c r="AI61" s="39"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -29079,7 +29089,7 @@
       <c r="AH62" s="39"/>
       <c r="AI62" s="39"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -29116,7 +29126,7 @@
       <c r="AH63" s="39"/>
       <c r="AI63" s="39"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -29153,7 +29163,7 @@
       <c r="AH64" s="39"/>
       <c r="AI64" s="39"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -29190,7 +29200,7 @@
       <c r="AH65" s="39"/>
       <c r="AI65" s="39"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -29227,7 +29237,7 @@
       <c r="AH66" s="39"/>
       <c r="AI66" s="39"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -29264,7 +29274,7 @@
       <c r="AH67" s="39"/>
       <c r="AI67" s="39"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -29301,7 +29311,7 @@
       <c r="AH68" s="39"/>
       <c r="AI68" s="39"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -29338,7 +29348,7 @@
       <c r="AH69" s="39"/>
       <c r="AI69" s="39"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -29375,7 +29385,7 @@
       <c r="AH70" s="39"/>
       <c r="AI70" s="39"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -29412,7 +29422,7 @@
       <c r="AH71" s="39"/>
       <c r="AI71" s="39"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -29449,7 +29459,7 @@
       <c r="AH72" s="39"/>
       <c r="AI72" s="39"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -29486,7 +29496,7 @@
       <c r="AH73" s="39"/>
       <c r="AI73" s="39"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -29523,7 +29533,7 @@
       <c r="AH74" s="39"/>
       <c r="AI74" s="39"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -29560,7 +29570,7 @@
       <c r="AH75" s="39"/>
       <c r="AI75" s="39"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -29597,7 +29607,7 @@
       <c r="AH76" s="39"/>
       <c r="AI76" s="39"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -29634,7 +29644,7 @@
       <c r="AH77" s="39"/>
       <c r="AI77" s="39"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -29671,7 +29681,7 @@
       <c r="AH78" s="39"/>
       <c r="AI78" s="39"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -29708,7 +29718,7 @@
       <c r="AH79" s="39"/>
       <c r="AI79" s="39"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -29745,7 +29755,7 @@
       <c r="AH80" s="39"/>
       <c r="AI80" s="39"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -29782,7 +29792,7 @@
       <c r="AH81" s="39"/>
       <c r="AI81" s="39"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -29819,7 +29829,7 @@
       <c r="AH82" s="39"/>
       <c r="AI82" s="39"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -29856,7 +29866,7 @@
       <c r="AH83" s="39"/>
       <c r="AI83" s="39"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -29893,7 +29903,7 @@
       <c r="AH84" s="39"/>
       <c r="AI84" s="39"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -29930,7 +29940,7 @@
       <c r="AH85" s="39"/>
       <c r="AI85" s="39"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -29967,7 +29977,7 @@
       <c r="AH86" s="39"/>
       <c r="AI86" s="39"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -30004,7 +30014,7 @@
       <c r="AH87" s="39"/>
       <c r="AI87" s="39"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -30041,7 +30051,7 @@
       <c r="AH88" s="39"/>
       <c r="AI88" s="39"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -30078,7 +30088,7 @@
       <c r="AH89" s="39"/>
       <c r="AI89" s="39"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -30115,7 +30125,7 @@
       <c r="AH90" s="39"/>
       <c r="AI90" s="39"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -30152,7 +30162,7 @@
       <c r="AH91" s="39"/>
       <c r="AI91" s="39"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -30189,7 +30199,7 @@
       <c r="AH92" s="39"/>
       <c r="AI92" s="39"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -30226,7 +30236,7 @@
       <c r="AH93" s="39"/>
       <c r="AI93" s="39"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -30263,7 +30273,7 @@
       <c r="AH94" s="39"/>
       <c r="AI94" s="39"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -30300,7 +30310,7 @@
       <c r="AH95" s="39"/>
       <c r="AI95" s="39"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -30337,7 +30347,7 @@
       <c r="AH96" s="39"/>
       <c r="AI96" s="39"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -30374,7 +30384,7 @@
       <c r="AH97" s="39"/>
       <c r="AI97" s="39"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -30411,7 +30421,7 @@
       <c r="AH98" s="39"/>
       <c r="AI98" s="39"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -30448,7 +30458,7 @@
       <c r="AH99" s="39"/>
       <c r="AI99" s="39"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -30485,7 +30495,7 @@
       <c r="AH100" s="39"/>
       <c r="AI100" s="39"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -30522,7 +30532,7 @@
       <c r="AH101" s="39"/>
       <c r="AI101" s="39"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACCEA43-0DDE-4660-AEBF-4D43AE4B68AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67312AB-A663-4576-B339-71CE07A1A099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="894" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" tabRatio="894" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" state="hidden" r:id="rId1"/>
@@ -28,17 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -753,6 +743,87 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -870,103 +941,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,21 +957,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,8 +1013,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1103,6 +1091,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1156,8 +1146,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8496300" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3799,8 +3789,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="6833235"/>
-          <a:ext cx="727710" cy="361950"/>
+          <a:off x="7848600" y="6867525"/>
+          <a:ext cx="685800" cy="361950"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4040,8 +4030,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="7309485"/>
-          <a:ext cx="727710" cy="371475"/>
+          <a:off x="7848600" y="7343775"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4492,8 +4482,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2884170" y="7157085"/>
-          <a:ext cx="163830" cy="161925"/>
+          <a:off x="2695575" y="7191375"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -6378,10 +6368,10 @@
       <xdr:rowOff>60107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6393,18 +6383,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="96" idx="0"/>
+          <a:stCxn id="93" idx="3"/>
           <a:endCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4848219" y="2803307"/>
-          <a:ext cx="1328744" cy="1363882"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4848219" y="2441357"/>
+          <a:ext cx="1971681" cy="1149568"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -122759"/>
+            <a:gd name="adj1" fmla="val -11594"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6435,15 +6425,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6460,8 +6450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7248525" y="3924300"/>
-          <a:ext cx="542925" cy="180975"/>
+          <a:off x="7191375" y="3409950"/>
+          <a:ext cx="542925" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8710,8 +8700,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="6223635"/>
-          <a:ext cx="727710" cy="361950"/>
+          <a:off x="7848600" y="6257925"/>
+          <a:ext cx="685800" cy="361950"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -8951,8 +8941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="6699885"/>
-          <a:ext cx="727710" cy="371475"/>
+          <a:off x="7848600" y="6734175"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -9403,8 +9393,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2884170" y="6547485"/>
-          <a:ext cx="163830" cy="161925"/>
+          <a:off x="2695575" y="6581775"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -10780,8 +10770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2548890" y="2994660"/>
-          <a:ext cx="163830" cy="161925"/>
+          <a:off x="2381250" y="3028950"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -11445,7 +11435,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7160895" y="4328160"/>
+          <a:off x="6657975" y="4362450"/>
           <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
@@ -13623,8 +13613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="6833235"/>
-          <a:ext cx="727710" cy="361950"/>
+          <a:off x="7848600" y="6867525"/>
+          <a:ext cx="685800" cy="361950"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -13864,8 +13854,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="7309485"/>
-          <a:ext cx="727710" cy="371475"/>
+          <a:off x="7848600" y="7343775"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -14316,8 +14306,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2884170" y="7157085"/>
-          <a:ext cx="163830" cy="161925"/>
+          <a:off x="2695575" y="7191375"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -15466,8 +15456,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4695825" y="3689985"/>
-          <a:ext cx="163830" cy="161925"/>
+          <a:off x="4381500" y="3724275"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -16081,42 +16071,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -16124,12 +16114,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -16140,42 +16130,42 @@
       <c r="J25" s="78"/>
       <c r="K25" s="78"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -16185,7 +16175,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="29"/>
@@ -16198,515 +16188,515 @@
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
       <c r="S35" s="23"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="24"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="23"/>
       <c r="S36" s="24"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="26"/>
       <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -16730,63 +16720,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="14"/>
+    <col min="1" max="16384" width="4.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="96" t="s">
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="105" t="s">
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="86" t="s">
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="114" t="str">
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="141" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="79">
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="106">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="108"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -16794,53 +16784,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="86" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="92" t="str">
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="79" t="str">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="106" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="108"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -16848,45 +16838,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="117" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="81"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="108"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -16923,1190 +16913,1034 @@
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="85" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="82" t="s">
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="82" t="s">
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="83"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="110"/>
     </row>
     <row r="8" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="93"/>
+      <c r="D8" s="94">
         <v>43578</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="102"/>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="124"/>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
     </row>
     <row r="12" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="87"/>
     </row>
     <row r="13" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="87"/>
     </row>
     <row r="14" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="126"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="87"/>
     </row>
     <row r="15" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="87"/>
     </row>
     <row r="16" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="87"/>
     </row>
     <row r="17" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
     </row>
     <row r="18" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="126"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
     </row>
     <row r="19" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="87"/>
     </row>
     <row r="20" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="126"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="87"/>
     </row>
     <row r="21" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="87"/>
     </row>
     <row r="22" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
     </row>
     <row r="23" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="126"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="87"/>
     </row>
     <row r="24" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="87"/>
     </row>
     <row r="25" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="87"/>
     </row>
     <row r="26" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="126"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="87"/>
     </row>
     <row r="27" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="126"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="87"/>
     </row>
     <row r="28" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="126"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="87"/>
     </row>
     <row r="29" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="126"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="124"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="126"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
     </row>
     <row r="31" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="124"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="126"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="87"/>
     </row>
     <row r="32" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="124"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="87"/>
     </row>
     <row r="33" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="126"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="87"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -18130,6 +17964,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18146,307 +18136,307 @@
   <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="46" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="66" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="46" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="66" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="46"/>
-    <col min="257" max="290" width="4.875" style="46" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="46"/>
-    <col min="513" max="546" width="4.875" style="46" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="46"/>
-    <col min="769" max="802" width="4.875" style="46" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="46"/>
-    <col min="1025" max="1058" width="4.875" style="46" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="46"/>
-    <col min="1281" max="1314" width="4.875" style="46" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="46"/>
-    <col min="1537" max="1570" width="4.875" style="46" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="46"/>
-    <col min="1793" max="1826" width="4.875" style="46" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="46"/>
-    <col min="2049" max="2082" width="4.875" style="46" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="46"/>
-    <col min="2305" max="2338" width="4.875" style="46" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="46"/>
-    <col min="2561" max="2594" width="4.875" style="46" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="46"/>
-    <col min="2817" max="2850" width="4.875" style="46" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="46"/>
-    <col min="3073" max="3106" width="4.875" style="46" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="46"/>
-    <col min="3329" max="3362" width="4.875" style="46" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="46"/>
-    <col min="3585" max="3618" width="4.875" style="46" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="46"/>
-    <col min="3841" max="3874" width="4.875" style="46" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="46"/>
-    <col min="4097" max="4130" width="4.875" style="46" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="46"/>
-    <col min="4353" max="4386" width="4.875" style="46" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="46"/>
-    <col min="4609" max="4642" width="4.875" style="46" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="46"/>
-    <col min="4865" max="4898" width="4.875" style="46" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="46"/>
-    <col min="5121" max="5154" width="4.875" style="46" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="46"/>
-    <col min="5377" max="5410" width="4.875" style="46" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="46"/>
-    <col min="5633" max="5666" width="4.875" style="46" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="46"/>
-    <col min="5889" max="5922" width="4.875" style="46" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="46"/>
-    <col min="6145" max="6178" width="4.875" style="46" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="46"/>
-    <col min="6401" max="6434" width="4.875" style="46" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="46"/>
-    <col min="6657" max="6690" width="4.875" style="46" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="46"/>
-    <col min="6913" max="6946" width="4.875" style="46" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="46"/>
-    <col min="7169" max="7202" width="4.875" style="46" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="46"/>
-    <col min="7425" max="7458" width="4.875" style="46" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="46"/>
-    <col min="7681" max="7714" width="4.875" style="46" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="46"/>
-    <col min="7937" max="7970" width="4.875" style="46" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="46"/>
-    <col min="8193" max="8226" width="4.875" style="46" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="46"/>
-    <col min="8449" max="8482" width="4.875" style="46" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="46"/>
-    <col min="8705" max="8738" width="4.875" style="46" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="46"/>
-    <col min="8961" max="8994" width="4.875" style="46" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="46"/>
-    <col min="9217" max="9250" width="4.875" style="46" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="46"/>
-    <col min="9473" max="9506" width="4.875" style="46" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="46"/>
-    <col min="9729" max="9762" width="4.875" style="46" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="46"/>
-    <col min="9985" max="10018" width="4.875" style="46" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="46"/>
-    <col min="10241" max="10274" width="4.875" style="46" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="46"/>
-    <col min="10497" max="10530" width="4.875" style="46" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="46"/>
-    <col min="10753" max="10786" width="4.875" style="46" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="46"/>
-    <col min="11009" max="11042" width="4.875" style="46" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="46"/>
-    <col min="11265" max="11298" width="4.875" style="46" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="46"/>
-    <col min="11521" max="11554" width="4.875" style="46" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="46"/>
-    <col min="11777" max="11810" width="4.875" style="46" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="46"/>
-    <col min="12033" max="12066" width="4.875" style="46" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="46"/>
-    <col min="12289" max="12322" width="4.875" style="46" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="46"/>
-    <col min="12545" max="12578" width="4.875" style="46" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="46"/>
-    <col min="12801" max="12834" width="4.875" style="46" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="46"/>
-    <col min="13057" max="13090" width="4.875" style="46" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="46"/>
-    <col min="13313" max="13346" width="4.875" style="46" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="46"/>
-    <col min="13569" max="13602" width="4.875" style="46" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="46"/>
-    <col min="13825" max="13858" width="4.875" style="46" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="46"/>
-    <col min="14081" max="14114" width="4.875" style="46" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="46"/>
-    <col min="14337" max="14370" width="4.875" style="46" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="46"/>
-    <col min="14593" max="14626" width="4.875" style="46" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="46"/>
-    <col min="14849" max="14882" width="4.875" style="46" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="46"/>
-    <col min="15105" max="15138" width="4.875" style="46" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="46"/>
-    <col min="15361" max="15394" width="4.875" style="46" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="46"/>
-    <col min="15617" max="15650" width="4.875" style="46" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="46"/>
-    <col min="15873" max="15906" width="4.875" style="46" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="46"/>
-    <col min="16129" max="16162" width="4.875" style="46" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="46"/>
+    <col min="1" max="16" width="4.83203125" style="46" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="66" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="46" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="66" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="46"/>
+    <col min="257" max="290" width="4.83203125" style="46" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="46"/>
+    <col min="513" max="546" width="4.83203125" style="46" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="46"/>
+    <col min="769" max="802" width="4.83203125" style="46" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="46"/>
+    <col min="1025" max="1058" width="4.83203125" style="46" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="46"/>
+    <col min="1281" max="1314" width="4.83203125" style="46" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="46"/>
+    <col min="1537" max="1570" width="4.83203125" style="46" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="46"/>
+    <col min="1793" max="1826" width="4.83203125" style="46" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="46"/>
+    <col min="2049" max="2082" width="4.83203125" style="46" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="46"/>
+    <col min="2305" max="2338" width="4.83203125" style="46" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="46"/>
+    <col min="2561" max="2594" width="4.83203125" style="46" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="46"/>
+    <col min="2817" max="2850" width="4.83203125" style="46" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="46"/>
+    <col min="3073" max="3106" width="4.83203125" style="46" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="46"/>
+    <col min="3329" max="3362" width="4.83203125" style="46" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="46"/>
+    <col min="3585" max="3618" width="4.83203125" style="46" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="46"/>
+    <col min="3841" max="3874" width="4.83203125" style="46" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="46"/>
+    <col min="4097" max="4130" width="4.83203125" style="46" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="46"/>
+    <col min="4353" max="4386" width="4.83203125" style="46" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="46"/>
+    <col min="4609" max="4642" width="4.83203125" style="46" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="46"/>
+    <col min="4865" max="4898" width="4.83203125" style="46" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="46"/>
+    <col min="5121" max="5154" width="4.83203125" style="46" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="46"/>
+    <col min="5377" max="5410" width="4.83203125" style="46" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="46"/>
+    <col min="5633" max="5666" width="4.83203125" style="46" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="46"/>
+    <col min="5889" max="5922" width="4.83203125" style="46" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="46"/>
+    <col min="6145" max="6178" width="4.83203125" style="46" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="46"/>
+    <col min="6401" max="6434" width="4.83203125" style="46" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="46"/>
+    <col min="6657" max="6690" width="4.83203125" style="46" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="46"/>
+    <col min="6913" max="6946" width="4.83203125" style="46" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="46"/>
+    <col min="7169" max="7202" width="4.83203125" style="46" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="46"/>
+    <col min="7425" max="7458" width="4.83203125" style="46" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="46"/>
+    <col min="7681" max="7714" width="4.83203125" style="46" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="46"/>
+    <col min="7937" max="7970" width="4.83203125" style="46" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="46"/>
+    <col min="8193" max="8226" width="4.83203125" style="46" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="46"/>
+    <col min="8449" max="8482" width="4.83203125" style="46" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="46"/>
+    <col min="8705" max="8738" width="4.83203125" style="46" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="46"/>
+    <col min="8961" max="8994" width="4.83203125" style="46" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="46"/>
+    <col min="9217" max="9250" width="4.83203125" style="46" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="46"/>
+    <col min="9473" max="9506" width="4.83203125" style="46" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="46"/>
+    <col min="9729" max="9762" width="4.83203125" style="46" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="46"/>
+    <col min="9985" max="10018" width="4.83203125" style="46" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="46"/>
+    <col min="10241" max="10274" width="4.83203125" style="46" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="46"/>
+    <col min="10497" max="10530" width="4.83203125" style="46" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="46"/>
+    <col min="10753" max="10786" width="4.83203125" style="46" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="46"/>
+    <col min="11009" max="11042" width="4.83203125" style="46" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="46"/>
+    <col min="11265" max="11298" width="4.83203125" style="46" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="46"/>
+    <col min="11521" max="11554" width="4.83203125" style="46" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="46"/>
+    <col min="11777" max="11810" width="4.83203125" style="46" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="46"/>
+    <col min="12033" max="12066" width="4.83203125" style="46" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="46"/>
+    <col min="12289" max="12322" width="4.83203125" style="46" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="46"/>
+    <col min="12545" max="12578" width="4.83203125" style="46" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="46"/>
+    <col min="12801" max="12834" width="4.83203125" style="46" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="46"/>
+    <col min="13057" max="13090" width="4.83203125" style="46" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="46"/>
+    <col min="13313" max="13346" width="4.83203125" style="46" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="46"/>
+    <col min="13569" max="13602" width="4.83203125" style="46" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="46"/>
+    <col min="13825" max="13858" width="4.83203125" style="46" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="46"/>
+    <col min="14081" max="14114" width="4.83203125" style="46" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="46"/>
+    <col min="14337" max="14370" width="4.83203125" style="46" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="46"/>
+    <col min="14593" max="14626" width="4.83203125" style="46" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="46"/>
+    <col min="14849" max="14882" width="4.83203125" style="46" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="46"/>
+    <col min="15105" max="15138" width="4.83203125" style="46" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="46"/>
+    <col min="15361" max="15394" width="4.83203125" style="46" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="46"/>
+    <col min="15617" max="15650" width="4.83203125" style="46" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="46"/>
+    <col min="15873" max="15906" width="4.83203125" style="46" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="46"/>
+    <col min="16129" max="16162" width="4.83203125" style="46" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="159" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="168" t="str">
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="154" t="s">
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="154" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -18483,7 +18473,7 @@
       <c r="AH4" s="34"/>
       <c r="AI4" s="34"/>
     </row>
-    <row r="5" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -18522,7 +18512,7 @@
       <c r="AH5" s="34"/>
       <c r="AI5" s="34"/>
     </row>
-    <row r="6" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -18559,7 +18549,7 @@
       <c r="AH6" s="34"/>
       <c r="AI6" s="34"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="39" t="s">
         <v>52</v>
@@ -18598,7 +18588,7 @@
       <c r="AH7" s="44"/>
       <c r="AI7" s="45"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -18635,7 +18625,7 @@
       <c r="AH8" s="48"/>
       <c r="AI8" s="45"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="49" t="s">
         <v>53</v>
@@ -18674,7 +18664,7 @@
       <c r="AH9" s="50"/>
       <c r="AI9" s="38"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -18711,7 +18701,7 @@
       <c r="AH10" s="44"/>
       <c r="AI10" s="45"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
       <c r="B11" s="49" t="s">
         <v>54</v>
@@ -18750,7 +18740,7 @@
       <c r="AH11" s="44"/>
       <c r="AI11" s="45"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="34"/>
       <c r="C12" s="38"/>
@@ -18787,7 +18777,7 @@
       <c r="AH12" s="44"/>
       <c r="AI12" s="45"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
       <c r="B13" s="34"/>
       <c r="C13" s="38"/>
@@ -18824,7 +18814,7 @@
       <c r="AH13" s="44"/>
       <c r="AI13" s="45"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="49"/>
       <c r="C14" s="38"/>
@@ -18861,7 +18851,7 @@
       <c r="AH14" s="44"/>
       <c r="AI14" s="45"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="34"/>
       <c r="C15" s="38"/>
@@ -18898,7 +18888,7 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="45"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
       <c r="B16" s="34"/>
       <c r="C16" s="38"/>
@@ -18935,7 +18925,7 @@
       <c r="AH16" s="44"/>
       <c r="AI16" s="45"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -18972,7 +18962,7 @@
       <c r="AH17" s="54"/>
       <c r="AI17" s="55"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
@@ -19009,7 +18999,7 @@
       <c r="AH18" s="54"/>
       <c r="AI18" s="55"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="58"/>
       <c r="C19" s="38"/>
@@ -19046,7 +19036,7 @@
       <c r="AH19" s="54"/>
       <c r="AI19" s="55"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="58"/>
       <c r="C20" s="38"/>
@@ -19083,7 +19073,7 @@
       <c r="AH20" s="54"/>
       <c r="AI20" s="55"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="58"/>
       <c r="C21" s="38"/>
@@ -19120,7 +19110,7 @@
       <c r="AH21" s="54"/>
       <c r="AI21" s="55"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="58"/>
       <c r="C22" s="38"/>
@@ -19157,7 +19147,7 @@
       <c r="AH22" s="54"/>
       <c r="AI22" s="55"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -19427,6 +19417,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -19436,14 +19434,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -19460,177 +19450,177 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="49"/>
+    <col min="1" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="179" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="154" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="154" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -19667,7 +19657,7 @@
       <c r="AH4" s="77"/>
       <c r="AI4" s="77"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
         <v>48</v>
@@ -19706,7 +19696,7 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
     </row>
-    <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -19743,7 +19733,7 @@
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
     </row>
-    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -19780,7 +19770,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
     </row>
-    <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -19817,7 +19807,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
     </row>
-    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -19854,7 +19844,7 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="39"/>
     </row>
-    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -19891,7 +19881,7 @@
       <c r="AH10" s="39"/>
       <c r="AI10" s="39"/>
     </row>
-    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -19928,7 +19918,7 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -19965,7 +19955,7 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -20002,7 +19992,7 @@
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -20039,7 +20029,7 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -20076,7 +20066,7 @@
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -20113,7 +20103,7 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -20150,7 +20140,7 @@
       <c r="AH17" s="39"/>
       <c r="AI17" s="39"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -20187,7 +20177,7 @@
       <c r="AH18" s="39"/>
       <c r="AI18" s="39"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -20224,7 +20214,7 @@
       <c r="AH19" s="39"/>
       <c r="AI19" s="39"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -20261,7 +20251,7 @@
       <c r="AH20" s="39"/>
       <c r="AI20" s="39"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -20298,7 +20288,7 @@
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -20335,7 +20325,7 @@
       <c r="AH22" s="39"/>
       <c r="AI22" s="39"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -20372,7 +20362,7 @@
       <c r="AH23" s="39"/>
       <c r="AI23" s="39"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -20409,7 +20399,7 @@
       <c r="AH24" s="39"/>
       <c r="AI24" s="39"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -20446,7 +20436,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="39"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -20483,7 +20473,7 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -20520,7 +20510,7 @@
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -20557,7 +20547,7 @@
       <c r="AH28" s="39"/>
       <c r="AI28" s="39"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -20594,7 +20584,7 @@
       <c r="AH29" s="39"/>
       <c r="AI29" s="39"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -20631,7 +20621,7 @@
       <c r="AH30" s="39"/>
       <c r="AI30" s="39"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -20668,7 +20658,7 @@
       <c r="AH31" s="39"/>
       <c r="AI31" s="39"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -20705,7 +20695,7 @@
       <c r="AH32" s="39"/>
       <c r="AI32" s="39"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -20742,7 +20732,7 @@
       <c r="AH33" s="39"/>
       <c r="AI33" s="39"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -20779,7 +20769,7 @@
       <c r="AH34" s="39"/>
       <c r="AI34" s="39"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -20816,7 +20806,7 @@
       <c r="AH35" s="39"/>
       <c r="AI35" s="39"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -20853,7 +20843,7 @@
       <c r="AH36" s="39"/>
       <c r="AI36" s="39"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -20890,7 +20880,7 @@
       <c r="AH37" s="39"/>
       <c r="AI37" s="39"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -20927,7 +20917,7 @@
       <c r="AH38" s="39"/>
       <c r="AI38" s="39"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -20964,7 +20954,7 @@
       <c r="AH39" s="39"/>
       <c r="AI39" s="39"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -21001,7 +20991,7 @@
       <c r="AH40" s="39"/>
       <c r="AI40" s="39"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -21038,7 +21028,7 @@
       <c r="AH41" s="39"/>
       <c r="AI41" s="39"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -21075,7 +21065,7 @@
       <c r="AH42" s="39"/>
       <c r="AI42" s="39"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -21112,7 +21102,7 @@
       <c r="AH43" s="39"/>
       <c r="AI43" s="39"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -21149,7 +21139,7 @@
       <c r="AH44" s="39"/>
       <c r="AI44" s="39"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -21186,7 +21176,7 @@
       <c r="AH45" s="39"/>
       <c r="AI45" s="39"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -21223,7 +21213,7 @@
       <c r="AH46" s="39"/>
       <c r="AI46" s="39"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -21260,7 +21250,7 @@
       <c r="AH47" s="39"/>
       <c r="AI47" s="39"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -21297,7 +21287,7 @@
       <c r="AH48" s="39"/>
       <c r="AI48" s="39"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -21334,7 +21324,7 @@
       <c r="AH49" s="39"/>
       <c r="AI49" s="39"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -21371,7 +21361,7 @@
       <c r="AH50" s="39"/>
       <c r="AI50" s="39"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -21408,7 +21398,7 @@
       <c r="AH51" s="39"/>
       <c r="AI51" s="39"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -21445,7 +21435,7 @@
       <c r="AH52" s="39"/>
       <c r="AI52" s="39"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -21482,7 +21472,7 @@
       <c r="AH53" s="39"/>
       <c r="AI53" s="39"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -21519,7 +21509,7 @@
       <c r="AH54" s="39"/>
       <c r="AI54" s="39"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -21556,7 +21546,7 @@
       <c r="AH55" s="39"/>
       <c r="AI55" s="39"/>
     </row>
-    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -21593,7 +21583,7 @@
       <c r="AH56" s="39"/>
       <c r="AI56" s="39"/>
     </row>
-    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -21630,7 +21620,7 @@
       <c r="AH57" s="39"/>
       <c r="AI57" s="39"/>
     </row>
-    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -21667,7 +21657,7 @@
       <c r="AH58" s="39"/>
       <c r="AI58" s="39"/>
     </row>
-    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -21704,7 +21694,7 @@
       <c r="AH59" s="39"/>
       <c r="AI59" s="39"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -21741,7 +21731,7 @@
       <c r="AH60" s="39"/>
       <c r="AI60" s="39"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -21778,7 +21768,7 @@
       <c r="AH61" s="39"/>
       <c r="AI61" s="39"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -21815,7 +21805,7 @@
       <c r="AH62" s="39"/>
       <c r="AI62" s="39"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -21852,7 +21842,7 @@
       <c r="AH63" s="39"/>
       <c r="AI63" s="39"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -21889,7 +21879,7 @@
       <c r="AH64" s="39"/>
       <c r="AI64" s="39"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -21926,7 +21916,7 @@
       <c r="AH65" s="39"/>
       <c r="AI65" s="39"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -21963,7 +21953,7 @@
       <c r="AH66" s="39"/>
       <c r="AI66" s="39"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -22000,7 +21990,7 @@
       <c r="AH67" s="39"/>
       <c r="AI67" s="39"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -22037,7 +22027,7 @@
       <c r="AH68" s="39"/>
       <c r="AI68" s="39"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -22074,7 +22064,7 @@
       <c r="AH69" s="39"/>
       <c r="AI69" s="39"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -22111,7 +22101,7 @@
       <c r="AH70" s="39"/>
       <c r="AI70" s="39"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -22148,7 +22138,7 @@
       <c r="AH71" s="39"/>
       <c r="AI71" s="39"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -22185,7 +22175,7 @@
       <c r="AH72" s="39"/>
       <c r="AI72" s="39"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -22222,7 +22212,7 @@
       <c r="AH73" s="39"/>
       <c r="AI73" s="39"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -22259,7 +22249,7 @@
       <c r="AH74" s="39"/>
       <c r="AI74" s="39"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -22296,7 +22286,7 @@
       <c r="AH75" s="39"/>
       <c r="AI75" s="39"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -22333,7 +22323,7 @@
       <c r="AH76" s="39"/>
       <c r="AI76" s="39"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -22370,7 +22360,7 @@
       <c r="AH77" s="39"/>
       <c r="AI77" s="39"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -22407,7 +22397,7 @@
       <c r="AH78" s="39"/>
       <c r="AI78" s="39"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -22444,7 +22434,7 @@
       <c r="AH79" s="39"/>
       <c r="AI79" s="39"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -22481,7 +22471,7 @@
       <c r="AH80" s="39"/>
       <c r="AI80" s="39"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -22518,7 +22508,7 @@
       <c r="AH81" s="39"/>
       <c r="AI81" s="39"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -22555,7 +22545,7 @@
       <c r="AH82" s="39"/>
       <c r="AI82" s="39"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -22592,7 +22582,7 @@
       <c r="AH83" s="39"/>
       <c r="AI83" s="39"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -22629,7 +22619,7 @@
       <c r="AH84" s="39"/>
       <c r="AI84" s="39"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -22666,7 +22656,7 @@
       <c r="AH85" s="39"/>
       <c r="AI85" s="39"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -22703,7 +22693,7 @@
       <c r="AH86" s="39"/>
       <c r="AI86" s="39"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -22740,7 +22730,7 @@
       <c r="AH87" s="39"/>
       <c r="AI87" s="39"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -22777,7 +22767,7 @@
       <c r="AH88" s="39"/>
       <c r="AI88" s="39"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -22814,7 +22804,7 @@
       <c r="AH89" s="39"/>
       <c r="AI89" s="39"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -22851,7 +22841,7 @@
       <c r="AH90" s="39"/>
       <c r="AI90" s="39"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -22888,7 +22878,7 @@
       <c r="AH91" s="39"/>
       <c r="AI91" s="39"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -22925,7 +22915,7 @@
       <c r="AH92" s="39"/>
       <c r="AI92" s="39"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -22962,7 +22952,7 @@
       <c r="AH93" s="39"/>
       <c r="AI93" s="39"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -22999,7 +22989,7 @@
       <c r="AH94" s="39"/>
       <c r="AI94" s="39"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -23036,7 +23026,7 @@
       <c r="AH95" s="39"/>
       <c r="AI95" s="39"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -23073,7 +23063,7 @@
       <c r="AH96" s="39"/>
       <c r="AI96" s="39"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -23110,7 +23100,7 @@
       <c r="AH97" s="39"/>
       <c r="AI97" s="39"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -23147,7 +23137,7 @@
       <c r="AH98" s="39"/>
       <c r="AI98" s="39"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -23184,7 +23174,7 @@
       <c r="AH99" s="39"/>
       <c r="AI99" s="39"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -23221,7 +23211,7 @@
       <c r="AH100" s="39"/>
       <c r="AI100" s="39"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -23258,7 +23248,7 @@
       <c r="AH101" s="39"/>
       <c r="AI101" s="39"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -23297,6 +23287,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -23306,14 +23304,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -23337,177 +23327,177 @@
   <dimension ref="A1:AL91"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="49"/>
+    <col min="1" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="179" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="154" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="154" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -23544,7 +23534,7 @@
       <c r="AH4" s="77"/>
       <c r="AI4" s="77"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
         <v>49</v>
@@ -23583,7 +23573,7 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -23620,7 +23610,7 @@
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -23657,7 +23647,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -23694,7 +23684,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
     </row>
-    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -23731,7 +23721,7 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="39"/>
     </row>
-    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -23768,7 +23758,7 @@
       <c r="AH10" s="39"/>
       <c r="AI10" s="39"/>
     </row>
-    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -23805,7 +23795,7 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
     </row>
-    <row r="12" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -23842,7 +23832,7 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
     </row>
-    <row r="13" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -23879,7 +23869,7 @@
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
     </row>
-    <row r="14" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -23916,7 +23906,7 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -23953,7 +23943,7 @@
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -23988,7 +23978,7 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -24023,7 +24013,7 @@
       <c r="AH17" s="39"/>
       <c r="AI17" s="39"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -24058,7 +24048,7 @@
       <c r="AH18" s="39"/>
       <c r="AI18" s="39"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -24093,7 +24083,7 @@
       <c r="AH19" s="39"/>
       <c r="AI19" s="39"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -24128,7 +24118,7 @@
       <c r="AH20" s="39"/>
       <c r="AI20" s="39"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -24163,7 +24153,7 @@
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -24198,7 +24188,7 @@
       <c r="AH22" s="39"/>
       <c r="AI22" s="39"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -24233,7 +24223,7 @@
       <c r="AH23" s="39"/>
       <c r="AI23" s="39"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -24268,7 +24258,7 @@
       <c r="AH24" s="39"/>
       <c r="AI24" s="39"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -24303,7 +24293,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="39"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -24338,7 +24328,7 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -24373,7 +24363,7 @@
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -24408,7 +24398,7 @@
       <c r="AH28" s="39"/>
       <c r="AI28" s="39"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -24443,7 +24433,7 @@
       <c r="AH29" s="39"/>
       <c r="AI29" s="39"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -24478,7 +24468,7 @@
       <c r="AH30" s="39"/>
       <c r="AI30" s="39"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -24513,7 +24503,7 @@
       <c r="AH31" s="39"/>
       <c r="AI31" s="39"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -24548,7 +24538,7 @@
       <c r="AH32" s="39"/>
       <c r="AI32" s="39"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -24583,7 +24573,7 @@
       <c r="AH33" s="39"/>
       <c r="AI33" s="39"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -24618,7 +24608,7 @@
       <c r="AH34" s="39"/>
       <c r="AI34" s="39"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -24653,7 +24643,7 @@
       <c r="AH35" s="39"/>
       <c r="AI35" s="39"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -24688,7 +24678,7 @@
       <c r="AH36" s="39"/>
       <c r="AI36" s="39"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -24725,7 +24715,7 @@
       <c r="AH37" s="39"/>
       <c r="AI37" s="39"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -24762,7 +24752,7 @@
       <c r="AH38" s="39"/>
       <c r="AI38" s="39"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -24799,7 +24789,7 @@
       <c r="AH39" s="39"/>
       <c r="AI39" s="39"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -24836,7 +24826,7 @@
       <c r="AH40" s="39"/>
       <c r="AI40" s="39"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -24873,7 +24863,7 @@
       <c r="AH41" s="39"/>
       <c r="AI41" s="39"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -24910,7 +24900,7 @@
       <c r="AH42" s="39"/>
       <c r="AI42" s="39"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -24947,7 +24937,7 @@
       <c r="AH43" s="39"/>
       <c r="AI43" s="39"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -24984,7 +24974,7 @@
       <c r="AH44" s="39"/>
       <c r="AI44" s="39"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -25021,7 +25011,7 @@
       <c r="AH45" s="39"/>
       <c r="AI45" s="39"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -25058,7 +25048,7 @@
       <c r="AH46" s="39"/>
       <c r="AI46" s="39"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -25095,7 +25085,7 @@
       <c r="AH47" s="39"/>
       <c r="AI47" s="39"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -25132,7 +25122,7 @@
       <c r="AH48" s="39"/>
       <c r="AI48" s="39"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -25169,7 +25159,7 @@
       <c r="AH49" s="39"/>
       <c r="AI49" s="39"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -25206,7 +25196,7 @@
       <c r="AH50" s="39"/>
       <c r="AI50" s="39"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -25243,7 +25233,7 @@
       <c r="AH51" s="39"/>
       <c r="AI51" s="39"/>
     </row>
-    <row r="52" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -25280,7 +25270,7 @@
       <c r="AH52" s="39"/>
       <c r="AI52" s="39"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -25317,7 +25307,7 @@
       <c r="AH53" s="39"/>
       <c r="AI53" s="39"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -25354,7 +25344,7 @@
       <c r="AH54" s="39"/>
       <c r="AI54" s="39"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -25391,7 +25381,7 @@
       <c r="AH55" s="39"/>
       <c r="AI55" s="39"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -25428,7 +25418,7 @@
       <c r="AH56" s="39"/>
       <c r="AI56" s="39"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -25465,7 +25455,7 @@
       <c r="AH57" s="39"/>
       <c r="AI57" s="39"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -25502,7 +25492,7 @@
       <c r="AH58" s="39"/>
       <c r="AI58" s="39"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -25539,7 +25529,7 @@
       <c r="AH59" s="39"/>
       <c r="AI59" s="39"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -25576,7 +25566,7 @@
       <c r="AH60" s="39"/>
       <c r="AI60" s="39"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -25613,7 +25603,7 @@
       <c r="AH61" s="39"/>
       <c r="AI61" s="39"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -25650,7 +25640,7 @@
       <c r="AH62" s="39"/>
       <c r="AI62" s="39"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -25687,7 +25677,7 @@
       <c r="AH63" s="39"/>
       <c r="AI63" s="39"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -25724,7 +25714,7 @@
       <c r="AH64" s="39"/>
       <c r="AI64" s="39"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -25761,7 +25751,7 @@
       <c r="AH65" s="39"/>
       <c r="AI65" s="39"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -25798,7 +25788,7 @@
       <c r="AH66" s="39"/>
       <c r="AI66" s="39"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -25835,7 +25825,7 @@
       <c r="AH67" s="39"/>
       <c r="AI67" s="39"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -25872,7 +25862,7 @@
       <c r="AH68" s="39"/>
       <c r="AI68" s="39"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -25909,7 +25899,7 @@
       <c r="AH69" s="39"/>
       <c r="AI69" s="39"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -25946,7 +25936,7 @@
       <c r="AH70" s="39"/>
       <c r="AI70" s="39"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -25983,7 +25973,7 @@
       <c r="AH71" s="39"/>
       <c r="AI71" s="39"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -26020,7 +26010,7 @@
       <c r="AH72" s="39"/>
       <c r="AI72" s="39"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -26057,7 +26047,7 @@
       <c r="AH73" s="39"/>
       <c r="AI73" s="39"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -26094,7 +26084,7 @@
       <c r="AH74" s="39"/>
       <c r="AI74" s="39"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -26131,7 +26121,7 @@
       <c r="AH75" s="39"/>
       <c r="AI75" s="39"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -26168,7 +26158,7 @@
       <c r="AH76" s="39"/>
       <c r="AI76" s="39"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -26205,7 +26195,7 @@
       <c r="AH77" s="39"/>
       <c r="AI77" s="39"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -26242,7 +26232,7 @@
       <c r="AH78" s="39"/>
       <c r="AI78" s="39"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -26279,7 +26269,7 @@
       <c r="AH79" s="39"/>
       <c r="AI79" s="39"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -26316,7 +26306,7 @@
       <c r="AH80" s="39"/>
       <c r="AI80" s="39"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -26353,7 +26343,7 @@
       <c r="AH81" s="39"/>
       <c r="AI81" s="39"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -26390,7 +26380,7 @@
       <c r="AH82" s="39"/>
       <c r="AI82" s="39"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -26427,7 +26417,7 @@
       <c r="AH83" s="39"/>
       <c r="AI83" s="39"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -26464,7 +26454,7 @@
       <c r="AH84" s="39"/>
       <c r="AI84" s="39"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -26501,7 +26491,7 @@
       <c r="AH85" s="39"/>
       <c r="AI85" s="39"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -26538,7 +26528,7 @@
       <c r="AH86" s="39"/>
       <c r="AI86" s="39"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -26575,7 +26565,7 @@
       <c r="AH87" s="39"/>
       <c r="AI87" s="39"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -26612,7 +26602,7 @@
       <c r="AH88" s="39"/>
       <c r="AI88" s="39"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -26649,7 +26639,7 @@
       <c r="AH89" s="39"/>
       <c r="AI89" s="39"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -26686,7 +26676,7 @@
       <c r="AH90" s="39"/>
       <c r="AI90" s="39"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -26725,6 +26715,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -26734,14 +26732,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -26762,177 +26752,177 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="49"/>
+    <col min="1" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="179" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="154" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="145">
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="173"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="32"/>
     </row>
-    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="154" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+    <row r="3" spans="1:38" s="33" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -26969,7 +26959,7 @@
       <c r="AH4" s="77"/>
       <c r="AI4" s="77"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
         <v>50</v>
@@ -27008,7 +26998,7 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
     </row>
-    <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -27045,7 +27035,7 @@
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
     </row>
-    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -27082,7 +27072,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
     </row>
-    <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -27119,7 +27109,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
     </row>
-    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -27156,7 +27146,7 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="39"/>
     </row>
-    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -27193,7 +27183,7 @@
       <c r="AH10" s="39"/>
       <c r="AI10" s="39"/>
     </row>
-    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -27230,7 +27220,7 @@
       <c r="AH11" s="39"/>
       <c r="AI11" s="39"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -27267,7 +27257,7 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -27302,7 +27292,7 @@
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -27337,7 +27327,7 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -27372,7 +27362,7 @@
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -27407,7 +27397,7 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -27442,7 +27432,7 @@
       <c r="AH17" s="39"/>
       <c r="AI17" s="39"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -27477,7 +27467,7 @@
       <c r="AH18" s="39"/>
       <c r="AI18" s="39"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -27512,7 +27502,7 @@
       <c r="AH19" s="39"/>
       <c r="AI19" s="39"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -27547,7 +27537,7 @@
       <c r="AH20" s="39"/>
       <c r="AI20" s="39"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -27582,7 +27572,7 @@
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -27617,7 +27607,7 @@
       <c r="AH22" s="39"/>
       <c r="AI22" s="39"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -27652,7 +27642,7 @@
       <c r="AH23" s="39"/>
       <c r="AI23" s="39"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -27687,7 +27677,7 @@
       <c r="AH24" s="39"/>
       <c r="AI24" s="39"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -27722,7 +27712,7 @@
       <c r="AH25" s="39"/>
       <c r="AI25" s="39"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -27757,7 +27747,7 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -27794,7 +27784,7 @@
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -27831,7 +27821,7 @@
       <c r="AH28" s="39"/>
       <c r="AI28" s="39"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -27868,7 +27858,7 @@
       <c r="AH29" s="39"/>
       <c r="AI29" s="39"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -27905,7 +27895,7 @@
       <c r="AH30" s="39"/>
       <c r="AI30" s="39"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -27942,7 +27932,7 @@
       <c r="AH31" s="39"/>
       <c r="AI31" s="39"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -27979,7 +27969,7 @@
       <c r="AH32" s="39"/>
       <c r="AI32" s="39"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -28016,7 +28006,7 @@
       <c r="AH33" s="39"/>
       <c r="AI33" s="39"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -28053,7 +28043,7 @@
       <c r="AH34" s="39"/>
       <c r="AI34" s="39"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -28090,7 +28080,7 @@
       <c r="AH35" s="39"/>
       <c r="AI35" s="39"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -28127,7 +28117,7 @@
       <c r="AH36" s="39"/>
       <c r="AI36" s="39"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -28164,7 +28154,7 @@
       <c r="AH37" s="39"/>
       <c r="AI37" s="39"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -28201,7 +28191,7 @@
       <c r="AH38" s="39"/>
       <c r="AI38" s="39"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -28238,7 +28228,7 @@
       <c r="AH39" s="39"/>
       <c r="AI39" s="39"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -28275,7 +28265,7 @@
       <c r="AH40" s="39"/>
       <c r="AI40" s="39"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -28312,7 +28302,7 @@
       <c r="AH41" s="39"/>
       <c r="AI41" s="39"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -28349,7 +28339,7 @@
       <c r="AH42" s="39"/>
       <c r="AI42" s="39"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -28386,7 +28376,7 @@
       <c r="AH43" s="39"/>
       <c r="AI43" s="39"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -28423,7 +28413,7 @@
       <c r="AH44" s="39"/>
       <c r="AI44" s="39"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -28460,7 +28450,7 @@
       <c r="AH45" s="39"/>
       <c r="AI45" s="39"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -28497,7 +28487,7 @@
       <c r="AH46" s="39"/>
       <c r="AI46" s="39"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -28534,7 +28524,7 @@
       <c r="AH47" s="39"/>
       <c r="AI47" s="39"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -28571,7 +28561,7 @@
       <c r="AH48" s="39"/>
       <c r="AI48" s="39"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -28608,7 +28598,7 @@
       <c r="AH49" s="39"/>
       <c r="AI49" s="39"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -28645,7 +28635,7 @@
       <c r="AH50" s="39"/>
       <c r="AI50" s="39"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -28682,7 +28672,7 @@
       <c r="AH51" s="39"/>
       <c r="AI51" s="39"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -28719,7 +28709,7 @@
       <c r="AH52" s="39"/>
       <c r="AI52" s="39"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -28756,7 +28746,7 @@
       <c r="AH53" s="39"/>
       <c r="AI53" s="39"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -28793,7 +28783,7 @@
       <c r="AH54" s="39"/>
       <c r="AI54" s="39"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -28830,7 +28820,7 @@
       <c r="AH55" s="39"/>
       <c r="AI55" s="39"/>
     </row>
-    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -28867,7 +28857,7 @@
       <c r="AH56" s="39"/>
       <c r="AI56" s="39"/>
     </row>
-    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -28904,7 +28894,7 @@
       <c r="AH57" s="39"/>
       <c r="AI57" s="39"/>
     </row>
-    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -28941,7 +28931,7 @@
       <c r="AH58" s="39"/>
       <c r="AI58" s="39"/>
     </row>
-    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -28978,7 +28968,7 @@
       <c r="AH59" s="39"/>
       <c r="AI59" s="39"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -29015,7 +29005,7 @@
       <c r="AH60" s="39"/>
       <c r="AI60" s="39"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -29052,7 +29042,7 @@
       <c r="AH61" s="39"/>
       <c r="AI61" s="39"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -29089,7 +29079,7 @@
       <c r="AH62" s="39"/>
       <c r="AI62" s="39"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -29126,7 +29116,7 @@
       <c r="AH63" s="39"/>
       <c r="AI63" s="39"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -29163,7 +29153,7 @@
       <c r="AH64" s="39"/>
       <c r="AI64" s="39"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -29200,7 +29190,7 @@
       <c r="AH65" s="39"/>
       <c r="AI65" s="39"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -29237,7 +29227,7 @@
       <c r="AH66" s="39"/>
       <c r="AI66" s="39"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -29274,7 +29264,7 @@
       <c r="AH67" s="39"/>
       <c r="AI67" s="39"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -29311,7 +29301,7 @@
       <c r="AH68" s="39"/>
       <c r="AI68" s="39"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -29348,7 +29338,7 @@
       <c r="AH69" s="39"/>
       <c r="AI69" s="39"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -29385,7 +29375,7 @@
       <c r="AH70" s="39"/>
       <c r="AI70" s="39"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -29422,7 +29412,7 @@
       <c r="AH71" s="39"/>
       <c r="AI71" s="39"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -29459,7 +29449,7 @@
       <c r="AH72" s="39"/>
       <c r="AI72" s="39"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -29496,7 +29486,7 @@
       <c r="AH73" s="39"/>
       <c r="AI73" s="39"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -29533,7 +29523,7 @@
       <c r="AH74" s="39"/>
       <c r="AI74" s="39"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -29570,7 +29560,7 @@
       <c r="AH75" s="39"/>
       <c r="AI75" s="39"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -29607,7 +29597,7 @@
       <c r="AH76" s="39"/>
       <c r="AI76" s="39"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -29644,7 +29634,7 @@
       <c r="AH77" s="39"/>
       <c r="AI77" s="39"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -29681,7 +29671,7 @@
       <c r="AH78" s="39"/>
       <c r="AI78" s="39"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -29718,7 +29708,7 @@
       <c r="AH79" s="39"/>
       <c r="AI79" s="39"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -29755,7 +29745,7 @@
       <c r="AH80" s="39"/>
       <c r="AI80" s="39"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -29792,7 +29782,7 @@
       <c r="AH81" s="39"/>
       <c r="AI81" s="39"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -29829,7 +29819,7 @@
       <c r="AH82" s="39"/>
       <c r="AI82" s="39"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -29866,7 +29856,7 @@
       <c r="AH83" s="39"/>
       <c r="AI83" s="39"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -29903,7 +29893,7 @@
       <c r="AH84" s="39"/>
       <c r="AI84" s="39"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -29940,7 +29930,7 @@
       <c r="AH85" s="39"/>
       <c r="AI85" s="39"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -29977,7 +29967,7 @@
       <c r="AH86" s="39"/>
       <c r="AI86" s="39"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -30014,7 +30004,7 @@
       <c r="AH87" s="39"/>
       <c r="AI87" s="39"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -30051,7 +30041,7 @@
       <c r="AH88" s="39"/>
       <c r="AI88" s="39"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -30088,7 +30078,7 @@
       <c r="AH89" s="39"/>
       <c r="AI89" s="39"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -30125,7 +30115,7 @@
       <c r="AH90" s="39"/>
       <c r="AI90" s="39"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -30162,7 +30152,7 @@
       <c r="AH91" s="39"/>
       <c r="AI91" s="39"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -30199,7 +30189,7 @@
       <c r="AH92" s="39"/>
       <c r="AI92" s="39"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -30236,7 +30226,7 @@
       <c r="AH93" s="39"/>
       <c r="AI93" s="39"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -30273,7 +30263,7 @@
       <c r="AH94" s="39"/>
       <c r="AI94" s="39"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -30310,7 +30300,7 @@
       <c r="AH95" s="39"/>
       <c r="AI95" s="39"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -30347,7 +30337,7 @@
       <c r="AH96" s="39"/>
       <c r="AI96" s="39"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -30384,7 +30374,7 @@
       <c r="AH97" s="39"/>
       <c r="AI97" s="39"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -30421,7 +30411,7 @@
       <c r="AH98" s="39"/>
       <c r="AI98" s="39"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -30458,7 +30448,7 @@
       <c r="AH99" s="39"/>
       <c r="AI99" s="39"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -30495,7 +30485,7 @@
       <c r="AH100" s="39"/>
       <c r="AI100" s="39"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -30532,7 +30522,7 @@
       <c r="AH101" s="39"/>
       <c r="AI101" s="39"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -30571,6 +30561,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30580,14 +30578,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5504E6-D756-426F-9180-B5230328AFD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65399F81-7875-4BCC-BA6E-958177C5167F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,89 +747,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -951,6 +876,117 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -978,30 +1014,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1028,20 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -15618,6 +15618,210 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>205605</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D82D51-31D2-499D-ACF6-F1FBB110972E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="1"/>
+          <a:endCxn id="89" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2820866" y="4039334"/>
+          <a:ext cx="2953201" cy="1029825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80765"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52027</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>234467</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Text Box 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E4BEBA-B34E-4D17-8CD1-5EA597CE9112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5063642" y="5086350"/>
+          <a:ext cx="460863" cy="262303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>87924</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>243808</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="コネクタ: カギ線 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E184D146-892F-4C81-81E8-09275E8DC9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5010693" y="3730604"/>
+          <a:ext cx="612000" cy="1548000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20169,12 +20373,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="72">
+      <c r="I25" s="74">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>44845</v>
       </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -20772,57 +20976,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="126" t="s">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="108" t="s">
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="135" t="str">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="110" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="100">
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="75">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
@@ -20830,53 +21034,53 @@
       <c r="AN1" s="18"/>
     </row>
     <row r="2" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="108" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="114" t="str">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="89" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="100">
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="75">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
@@ -20884,45 +21088,45 @@
       <c r="AN2" s="17"/>
     </row>
     <row r="3" spans="1:40" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="102"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -20959,1046 +21163,1202 @@
       <c r="A7" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="105" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="105" t="s">
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="105" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="105" t="s">
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="106"/>
-      <c r="AI7" s="107"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="82"/>
     </row>
     <row r="8" spans="1:40" s="70" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="168">
+      <c r="A8" s="72">
         <v>1</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88">
+      <c r="C8" s="129"/>
+      <c r="D8" s="130">
         <v>43578</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91" t="s">
+      <c r="E8" s="131"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="97" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="94" t="s">
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="96"/>
+      <c r="AG8" s="137"/>
+      <c r="AH8" s="137"/>
+      <c r="AI8" s="138"/>
     </row>
     <row r="9" spans="1:40" s="70" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="169">
+      <c r="A9" s="73">
         <v>2</v>
       </c>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="75">
+      <c r="C9" s="116"/>
+      <c r="D9" s="117">
         <v>44845</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="75" t="s">
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="82" t="s">
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="82" t="s">
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="81"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="125"/>
+      <c r="AD9" s="125"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="124"/>
     </row>
     <row r="10" spans="1:40" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="169"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="81"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="123"/>
+      <c r="AH10" s="123"/>
+      <c r="AI10" s="124"/>
     </row>
     <row r="11" spans="1:40" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="169"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="80"/>
-      <c r="AH11" s="80"/>
-      <c r="AI11" s="81"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="124"/>
     </row>
     <row r="12" spans="1:40" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="169"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="80"/>
-      <c r="AH12" s="80"/>
-      <c r="AI12" s="81"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="125"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="127"/>
+      <c r="AG12" s="123"/>
+      <c r="AH12" s="123"/>
+      <c r="AI12" s="124"/>
     </row>
     <row r="13" spans="1:40" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="169"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="80"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="81"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="123"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="124"/>
     </row>
     <row r="14" spans="1:40" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="169"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="81"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="125"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="124"/>
     </row>
     <row r="15" spans="1:40" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="169"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="81"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="124"/>
     </row>
     <row r="16" spans="1:40" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="169"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="81"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="123"/>
+      <c r="AH16" s="123"/>
+      <c r="AI16" s="124"/>
     </row>
     <row r="17" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="169"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="80"/>
-      <c r="AH17" s="80"/>
-      <c r="AI17" s="81"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="123"/>
+      <c r="AH17" s="123"/>
+      <c r="AI17" s="124"/>
     </row>
     <row r="18" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="81"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="125"/>
+      <c r="AD18" s="125"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="123"/>
+      <c r="AH18" s="123"/>
+      <c r="AI18" s="124"/>
     </row>
     <row r="19" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="169"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="80"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="81"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="123"/>
+      <c r="AI19" s="124"/>
     </row>
     <row r="20" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="169"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="81"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="125"/>
+      <c r="AD20" s="125"/>
+      <c r="AE20" s="126"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="123"/>
+      <c r="AI20" s="124"/>
     </row>
     <row r="21" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="169"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="80"/>
-      <c r="AH21" s="80"/>
-      <c r="AI21" s="81"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="125"/>
+      <c r="AB21" s="125"/>
+      <c r="AC21" s="125"/>
+      <c r="AD21" s="125"/>
+      <c r="AE21" s="126"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="123"/>
+      <c r="AI21" s="124"/>
     </row>
     <row r="22" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="169"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="80"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="81"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="125"/>
+      <c r="AD22" s="125"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="123"/>
+      <c r="AI22" s="124"/>
     </row>
     <row r="23" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="80"/>
-      <c r="AH23" s="80"/>
-      <c r="AI23" s="81"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="125"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="123"/>
+      <c r="AH23" s="123"/>
+      <c r="AI23" s="124"/>
     </row>
     <row r="24" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="80"/>
-      <c r="AH24" s="80"/>
-      <c r="AI24" s="81"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="125"/>
+      <c r="AC24" s="125"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="126"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="123"/>
+      <c r="AI24" s="124"/>
     </row>
     <row r="25" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="83"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="81"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="125"/>
+      <c r="AE25" s="126"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="123"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="124"/>
     </row>
     <row r="26" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="169"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="83"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="80"/>
-      <c r="AH26" s="80"/>
-      <c r="AI26" s="81"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="125"/>
+      <c r="AC26" s="125"/>
+      <c r="AD26" s="125"/>
+      <c r="AE26" s="126"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="123"/>
+      <c r="AH26" s="123"/>
+      <c r="AI26" s="124"/>
     </row>
     <row r="27" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="81"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="124"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="125"/>
+      <c r="AB27" s="125"/>
+      <c r="AC27" s="125"/>
+      <c r="AD27" s="125"/>
+      <c r="AE27" s="126"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="123"/>
+      <c r="AH27" s="123"/>
+      <c r="AI27" s="124"/>
     </row>
     <row r="28" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="169"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="81"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="124"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="125"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="125"/>
+      <c r="Z28" s="125"/>
+      <c r="AA28" s="125"/>
+      <c r="AB28" s="125"/>
+      <c r="AC28" s="125"/>
+      <c r="AD28" s="125"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="123"/>
+      <c r="AH28" s="123"/>
+      <c r="AI28" s="124"/>
     </row>
     <row r="29" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="169"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="81"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="125"/>
+      <c r="Y29" s="125"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="125"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="125"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="127"/>
+      <c r="AG29" s="123"/>
+      <c r="AH29" s="123"/>
+      <c r="AI29" s="124"/>
     </row>
     <row r="30" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="169"/>
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="80"/>
-      <c r="AH30" s="80"/>
-      <c r="AI30" s="81"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="125"/>
+      <c r="AA30" s="125"/>
+      <c r="AB30" s="125"/>
+      <c r="AC30" s="125"/>
+      <c r="AD30" s="125"/>
+      <c r="AE30" s="126"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="123"/>
+      <c r="AH30" s="123"/>
+      <c r="AI30" s="124"/>
     </row>
     <row r="31" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="169"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="83"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="83"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="80"/>
-      <c r="AI31" s="81"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
+      <c r="W31" s="125"/>
+      <c r="X31" s="125"/>
+      <c r="Y31" s="125"/>
+      <c r="Z31" s="125"/>
+      <c r="AA31" s="125"/>
+      <c r="AB31" s="125"/>
+      <c r="AC31" s="125"/>
+      <c r="AD31" s="125"/>
+      <c r="AE31" s="126"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="123"/>
+      <c r="AH31" s="123"/>
+      <c r="AI31" s="124"/>
     </row>
     <row r="32" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="169"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="83"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="83"/>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="83"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="80"/>
-      <c r="AH32" s="80"/>
-      <c r="AI32" s="81"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="125"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="125"/>
+      <c r="AC32" s="125"/>
+      <c r="AD32" s="125"/>
+      <c r="AE32" s="126"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="123"/>
+      <c r="AH32" s="123"/>
+      <c r="AI32" s="124"/>
     </row>
     <row r="33" spans="1:35" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="169"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="83"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="83"/>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="83"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="80"/>
-      <c r="AI33" s="81"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="124"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="125"/>
+      <c r="S33" s="125"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="125"/>
+      <c r="W33" s="125"/>
+      <c r="X33" s="125"/>
+      <c r="Y33" s="125"/>
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="125"/>
+      <c r="AB33" s="125"/>
+      <c r="AC33" s="125"/>
+      <c r="AD33" s="125"/>
+      <c r="AE33" s="126"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="123"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="124"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K34" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -22022,162 +22382,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -22333,163 +22537,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="140" t="str">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="152" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="108" t="s">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="str">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="108" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111" t="str">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="152" t="str">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="151"/>
+      <c r="AC3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -23477,14 +23681,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -23494,6 +23690,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -23519,163 +23723,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="157" t="str">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="108" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="str">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="108" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111" t="str">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="152" t="str">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -27347,14 +27551,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -27364,6 +27560,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -27396,163 +27600,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="157" t="str">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="108" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="str">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="108" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111" t="str">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="152" t="str">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -30775,14 +30979,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30792,6 +30988,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -30821,163 +31025,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="157" t="str">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="108" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="str">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="108" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111" t="str">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="152" t="str">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -34649,6 +34853,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
@@ -34665,7 +34870,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -34698,163 +34902,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="117" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="157" t="str">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="108" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="152" t="str">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="18"/>
     </row>
     <row r="2" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="str">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="108" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="152" t="str">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="149">
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111" t="str">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="152" t="str">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -38498,14 +38702,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -38515,6 +38711,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Processing_Flow_A1_Project_Management_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1E3533-6792-4440-A0A4-C4C863746962}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D583C00-7D1D-4076-B0DE-13C1B76D8D0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,92 +708,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -915,6 +862,117 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -942,30 +1000,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -992,42 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -10639,7 +10639,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Generic error</a:t>
+            <a:t>General error</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="900">
             <a:solidFill>
@@ -19111,15 +19111,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="155"/>
+    <col min="1" max="16384" width="8.83203125" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
+      <c r="A2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19141,125 +19141,125 @@
     <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="159"/>
-      <c r="H22" s="159"/>
+      <c r="F22" s="62"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="J23" s="160" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="J23" s="63" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="161">
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="73">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>44845</v>
       </c>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="162"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="159"/>
-      <c r="H29" s="159"/>
+      <c r="F29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="159"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="159"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="159"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="159"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="6:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F32" s="159"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="159"/>
-      <c r="J32" s="164"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="62"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="6:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="J33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="165"/>
+      <c r="F33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="J33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
     </row>
     <row r="34" spans="6:19" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="J34" s="164"/>
-      <c r="L34" s="165"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="165"/>
-      <c r="O34" s="165"/>
-      <c r="P34" s="165"/>
-      <c r="Q34" s="167"/>
+      <c r="F34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="J34" s="66"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="69"/>
       <c r="R34" s="51"/>
       <c r="S34" s="51"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O35" s="165"/>
-      <c r="P35" s="165"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
       <c r="Q35" s="51"/>
       <c r="R35" s="51"/>
       <c r="S35" s="51"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O36" s="168"/>
+      <c r="O36" s="70"/>
       <c r="P36" s="51"/>
-      <c r="Q36" s="168"/>
+      <c r="Q36" s="70"/>
       <c r="R36" s="51"/>
-      <c r="S36" s="168"/>
+      <c r="S36" s="70"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O37" s="169"/>
-      <c r="P37" s="169"/>
-      <c r="Q37" s="169"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="169"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="71"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O38" s="169"/>
-      <c r="P38" s="169"/>
-      <c r="Q38" s="170"/>
-      <c r="R38" s="170"/>
-      <c r="S38" s="170"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O39" s="169"/>
-      <c r="P39" s="169"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="170"/>
-      <c r="S39" s="170"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19764,57 +19764,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="113" t="s">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="122" t="str">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="109" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="87">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="74">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="89"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="76"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -19822,53 +19822,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="101" t="str">
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="88" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="87">
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="74">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="76"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -19876,45 +19876,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="89"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="76"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -19951,1046 +19951,1202 @@
       <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="92" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="92" t="s">
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="92" t="s">
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="92" t="s">
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="94"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="81"/>
     </row>
     <row r="8" spans="1:40" s="54" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75">
+      <c r="C8" s="128"/>
+      <c r="D8" s="129">
         <v>43578</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78" t="s">
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="84" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="81" t="s">
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="140"/>
+      <c r="AF8" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="83"/>
+      <c r="AG8" s="136"/>
+      <c r="AH8" s="136"/>
+      <c r="AI8" s="137"/>
     </row>
     <row r="9" spans="1:40" s="54" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57">
         <v>2</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60">
+      <c r="C9" s="115"/>
+      <c r="D9" s="116">
         <v>44845</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="60" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="69" t="s">
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69" t="s">
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="68"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="125"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="123"/>
     </row>
     <row r="10" spans="1:40" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="68"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="123"/>
     </row>
     <row r="11" spans="1:40" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="68"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="123"/>
     </row>
     <row r="12" spans="1:40" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="68"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="125"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="123"/>
     </row>
     <row r="13" spans="1:40" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="68"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="123"/>
     </row>
     <row r="14" spans="1:40" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="68"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="123"/>
     </row>
     <row r="15" spans="1:40" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="68"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="122"/>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="123"/>
     </row>
     <row r="16" spans="1:40" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="68"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="123"/>
     </row>
     <row r="17" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="68"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="123"/>
     </row>
     <row r="18" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="68"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="126"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="123"/>
     </row>
     <row r="19" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="68"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="125"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="122"/>
+      <c r="AH19" s="122"/>
+      <c r="AI19" s="123"/>
     </row>
     <row r="20" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="68"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="126"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="123"/>
     </row>
     <row r="21" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="68"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="125"/>
+      <c r="AF21" s="126"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="123"/>
     </row>
     <row r="22" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="68"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="126"/>
+      <c r="AG22" s="122"/>
+      <c r="AH22" s="122"/>
+      <c r="AI22" s="123"/>
     </row>
     <row r="23" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
-      <c r="AI23" s="68"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="122"/>
+      <c r="AH23" s="122"/>
+      <c r="AI23" s="123"/>
     </row>
     <row r="24" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="70"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="68"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="126"/>
+      <c r="AG24" s="122"/>
+      <c r="AH24" s="122"/>
+      <c r="AI24" s="123"/>
     </row>
     <row r="25" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="68"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="122"/>
+      <c r="AH25" s="122"/>
+      <c r="AI25" s="123"/>
     </row>
     <row r="26" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="70"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="68"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="124"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="124"/>
+      <c r="Z26" s="124"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="124"/>
+      <c r="AE26" s="125"/>
+      <c r="AF26" s="126"/>
+      <c r="AG26" s="122"/>
+      <c r="AH26" s="122"/>
+      <c r="AI26" s="123"/>
     </row>
     <row r="27" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="70"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="68"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="125"/>
+      <c r="AF27" s="126"/>
+      <c r="AG27" s="122"/>
+      <c r="AH27" s="122"/>
+      <c r="AI27" s="123"/>
     </row>
     <row r="28" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="70"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="70"/>
-      <c r="AB28" s="70"/>
-      <c r="AC28" s="70"/>
-      <c r="AD28" s="70"/>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="68"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="124"/>
+      <c r="AE28" s="125"/>
+      <c r="AF28" s="126"/>
+      <c r="AG28" s="122"/>
+      <c r="AH28" s="122"/>
+      <c r="AI28" s="123"/>
     </row>
     <row r="29" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="70"/>
-      <c r="AD29" s="70"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="68"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="124"/>
+      <c r="AE29" s="125"/>
+      <c r="AF29" s="126"/>
+      <c r="AG29" s="122"/>
+      <c r="AH29" s="122"/>
+      <c r="AI29" s="123"/>
     </row>
     <row r="30" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="68"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="125"/>
+      <c r="AF30" s="126"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="122"/>
+      <c r="AI30" s="123"/>
     </row>
     <row r="31" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="70"/>
-      <c r="AB31" s="70"/>
-      <c r="AC31" s="70"/>
-      <c r="AD31" s="70"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="68"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="124"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="124"/>
+      <c r="U31" s="124"/>
+      <c r="V31" s="124"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="124"/>
+      <c r="AE31" s="125"/>
+      <c r="AF31" s="126"/>
+      <c r="AG31" s="122"/>
+      <c r="AH31" s="122"/>
+      <c r="AI31" s="123"/>
     </row>
     <row r="32" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="70"/>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="70"/>
-      <c r="AD32" s="70"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="68"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="124"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="124"/>
+      <c r="Z32" s="124"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="124"/>
+      <c r="AE32" s="125"/>
+      <c r="AF32" s="126"/>
+      <c r="AG32" s="122"/>
+      <c r="AH32" s="122"/>
+      <c r="AI32" s="123"/>
     </row>
     <row r="33" spans="1:35" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="70"/>
-      <c r="AC33" s="70"/>
-      <c r="AD33" s="70"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="68"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="124"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="124"/>
+      <c r="AE33" s="125"/>
+      <c r="AF33" s="126"/>
+      <c r="AG33" s="122"/>
+      <c r="AH33" s="122"/>
+      <c r="AI33" s="123"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K34" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -21014,162 +21170,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -21325,163 +21325,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="127" t="str">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="151" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="136">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="136">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="138"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="136" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="143" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="138"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -22469,14 +22469,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -22486,6 +22478,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -22511,163 +22511,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="144" t="str">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="136">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="136">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="138"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="136" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="143" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="138"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -26339,14 +26339,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -26356,6 +26348,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -26388,163 +26388,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="144" t="str">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="136">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="136">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="138"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="136" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="143" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="138"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -29767,14 +29767,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -29784,6 +29776,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -29813,163 +29813,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="144" t="str">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="136">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="136">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="138"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="136" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="143" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="138"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -33641,6 +33641,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -33657,7 +33658,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -33690,163 +33690,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="144" t="str">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="162" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Processing Flow</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="136">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="136">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="143">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44845</v>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="138"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="136" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="143" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="138"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -37490,14 +37490,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -37507,6 +37499,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
